--- a/data_excel/接口测试用例_ (3).xlsx
+++ b/data_excel/接口测试用例_ (3).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 12:12:03', 'ftime': '2019-09-28 12:12:03', 'context': '离开【乌苏市寄递事业部营业部】,下一站【新疆乌苏市高泉】（经转）', 'location': '乌苏市寄递事业部营业部'}, {'time': '2019-09-28 10:30:15', 'ftime': '2019-09-28 10:30:15', 'context': '到达【乌苏市寄递事业部营业部】（经转）', 'location': '乌苏市寄递事业部营业部'}, {'time': '2019-09-28 00:33:16', 'ftime': '2019-09-28 00:33:16', 'context': '离开【乌鲁木齐处理中心】,下一站【乌苏市寄递事业部营业部】', 'location': '乌鲁木齐处理中心'}, {'time': '2019-09-27 18:16:03', 'ftime': '2019-09-27 18:16:03', 'context': '到达【乌鲁木齐处理中心】', 'location': '乌鲁木齐处理中心'}, {'time': '2019-09-27 17:55:46', 'ftime': '2019-09-27 17:55:46', 'context': '离开【维吾尔自治区乌鲁木齐直属政务中心】,下一站【乌市速处】', 'location': '维吾尔自治区乌鲁木齐直属政务中心'}, {'time': '2019-09-27 15:04:17', 'ftime': '2019-09-27 15:04:17', 'context': '乌鲁木齐市 【维吾尔自治区乌鲁木齐直属政务中心】已收件,揽投员:刘张婧琦,电话:18999151621', 'location': '维吾尔自治区乌鲁木齐直属政务中心'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 14:36:12', 'ftime': '2019-09-27 14:36:12', 'context': '深圳市跨境口岸,快件正在清关', 'location': ''}, {'time': '2019-09-27 13:37:08', 'ftime': '2019-09-27 13:37:08', 'context': '深圳市跨境口岸,陆运到达', 'location': ''}, {'time': '2019-09-27 08:44:23', 'ftime': '2019-09-27 08:44:23', 'context': '香港口岸,快件正在清关', 'location': ''}, {'time': '2019-09-27 08:06:15', 'ftime': '2019-09-27 08:06:15', 'context': '香港国际转运中心,国际干线运输已启程,班次号：粤ZDU86港,陆运发出', 'location': ''}, {'time': '2019-09-27 06:29:37', 'ftime': '2019-09-27 06:29:37', 'context': '香港国际转运中心,装件入车扫描,下一站【深圳市跨境口岸】,上车扫描', 'location': ''}, {'time': '2019-09-27 04:41:26', 'ftime': '2019-09-27 04:41:26', 'context': '香港国际转运中心,已出库,等待国际干线运输,上车扫描', 'location': ''}, {'time': '2019-09-27 02:50:39', 'ftime': '2019-09-27 02:50:39', 'context': '香港国际转运中心,已收入', 'location': ''}, {'time': '2019-09-26 19:28:13', 'ftime': '2019-09-26 19:28:13', 'context': '香港新界公司,已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.07341499999999999</v>
+        <v>0.069575</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.011141</v>
+        <v>0.010039</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 17:06:32', 'ftime': '2019-09-28 17:06:32', 'context': '[广州市]离开【邮政广州流花大院转运站】,下一站【江高中心】（经转）', 'location': None}, {'time': '2019-09-28 12:16:09', 'ftime': '2019-09-28 12:16:09', 'context': '[广州市]到达【邮政广州流花大院转运站】（经转）', 'location': None}, {'time': '2019-09-28 09:53:13', 'ftime': '2019-09-28 09:53:13', 'context': '离开【邮政深圳市处理中心】,下一站【邮政广州流花大院转运站】', 'location': None}, {'time': '2019-09-28 02:48:02', 'ftime': '2019-09-28 02:48:02', 'context': '到达【邮政深圳市处理中心】', 'location': None}, {'time': '2019-09-28 02:46:36', 'ftime': '2019-09-28 02:46:36', 'context': '[深圳市]离开【龙岗包裹快递大宗营业部】,下一站【深圳中心】', 'location': None}, {'time': '2019-09-28 02:39:17', 'ftime': '2019-09-28 02:39:17', 'context': '[深圳市]【龙岗包裹快递大宗营业部】已收件,揽投员:龙岗数据导入寄递,电话:13000000000', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 08:48:09', 'ftime': '2019-09-27 08:48:09', 'context': '到达【邮政宁德市金涵支局】 宁德市', 'location': ''}, {'time': '2019-09-27 06:58:54', 'ftime': '2019-09-27 06:58:54', 'context': '离开【宁德市邮件处理中心】,下一站【邮政宁德市金涵支局】 宁德市', 'location': ''}, {'time': '2019-09-26 11:59:53', 'ftime': '2019-09-26 11:59:53', 'context': '到达【宁德市邮件处理中心】 宁德市', 'location': ''}, {'time': '2019-09-26 10:03:01', 'ftime': '2019-09-26 10:03:01', 'context': '离开【航空中心】,下一站【宁德市邮件处理中心】（经转） 福州市', 'location': ''}, {'time': '2019-09-26 08:31:36', 'ftime': '2019-09-26 08:31:36', 'context': '到达【航空中心】（经转） 福州市', 'location': ''}, {'time': '2019-09-26 06:29:35', 'ftime': '2019-09-26 06:29:35', 'context': '离开【南航集散】,下一站【航空中心】（经转） 南京市', 'location': ''}, {'time': '2019-09-26 01:18:44', 'ftime': '2019-09-26 01:18:44', 'context': '到达【南航集散】（经转） 南京市', 'location': ''}, {'time': '2019-09-25 20:41:04', 'ftime': '2019-09-25 20:41:04', 'context': '离开【上海市中春路处理中心】,下一站【南航集散】 上海市', 'location': ''}, {'time': '2019-09-25 19:18:46', 'ftime': '2019-09-25 19:18:46', 'context': '到达【上海市中春路处理中心】 上海市', 'location': ''}, {'time': '2019-09-25 18:43:03', 'ftime': '2019-09-25 18:43:03', 'context': '离开【上海市金融服务揽投部】,下一站【沪中春速】 上海市', 'location': ''}, {'time': '2019-09-25 17:27:49', 'ftime': '2019-09-25 17:27:49', 'context': '上海市 【上海市金融服务揽投部】已收件,揽投员:梅龙贞,电话:18918381021', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.069978</v>
+        <v>0.07106999999999999</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.010834</v>
+        <v>0.011323</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 20:17:00', 'ftime': '2019-09-28 20:17:00', 'context': '[Centro Scambi Internazionale Cina] Verifica doganale conclusa (UTC/GMT+1)', 'location': None}, {'time': '2019-09-28 20:17:00', 'ftime': '2019-09-28 20:17:00', 'context': '[Centro Scambi Internazionale Cina] In corso la verifica doganale (UTC/GMT+1)', 'location': None}, {'time': '2019-09-28 20:17:00', 'ftime': '2019-09-28 20:17:00', 'context': '[Centro Scambi Internazionale Cina] Partito dal Centro Scambi Internazionale (UTC/GMT+1)', 'location': None}, {'time': '2019-09-28 20:16:00', 'ftime': '2019-09-28 20:16:00', 'context': '[Centro Scambi Internazionale Cina] In lavorazione presso il Centro Scambi Internazionale (UTC/GMT+1)', 'location': None}, {'time': '2019-09-27 12:52:00', 'ftime': '2019-09-27 12:52:00', 'context': '[Centro Scambi Internazionale Milano Gateway Poste Italiane] Partito dal Centro Scambi Internazionale (UTC/GMT+1)', 'location': None}, {'time': '2019-09-27 10:21:00', 'ftime': '2019-09-27 10:21:00', 'context': '[Centro Scambi Internazionale Milano Gateway Poste Italiane] In lavorazione presso il Centro Scambi Internazionale (UTC/GMT+1)', 'location': None}, {'time': '2019-09-26 23:03:00', 'ftime': '2019-09-26 23:03:00', 'context': '[Campi Bisenzio (FI)] In transito presso il Centro Operativo SDA (UTC/GMT+1)', 'location': None}, {'time': '2019-09-26 21:08:00', 'ftime': '2019-09-26 21:08:00', 'context': '[Campi Bisenzio (FI)] Presa in carico a domicilio (UTC/GMT+1)', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:32:42', 'ftime': '2019-09-29 08:32:42', 'context': '[广东东莞大岭山公司]进行派件扫描；派送业务员：黄满棠；联系电话：13267363313', 'location': '广东东莞大岭山公司'}, {'time': '2019-09-28 23:20:17', 'ftime': '2019-09-28 23:20:17', 'context': '[广东东莞分拨中心]从站点发出，本次转运目的地：广东东莞大岭山公司', 'location': '广东东莞分拨中心'}, {'time': '2019-09-28 22:47:30', 'ftime': '2019-09-28 22:47:30', 'context': '[广东东莞分拨中心]在分拨中心进行称重扫描', 'location': '广东东莞分拨中心'}, {'time': '2019-09-28 02:46:18', 'ftime': '2019-09-28 02:46:18', 'context': '[安徽合肥分拨中心]进行装车扫描，发往：广东东莞分拨中心', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-28 01:19:43', 'ftime': '2019-09-28 01:19:43', 'context': '[安徽合肥分拨中心]进行中转集包扫描，发往：广东东莞网点包', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-27 21:46:29', 'ftime': '2019-09-27 21:46:29', 'context': '[安徽合肥分拨中心]在分拨中心进行称重扫描', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-27 16:11:44', 'ftime': '2019-09-27 16:11:44', 'context': '[安徽太和县公司]进行揽件扫描', 'location': '安徽太和县公司'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.072793</v>
+        <v>0.071519</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009313</v>
+        <v>0.010839</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-22 09:42:52', 'context': '查无结果', 'ftime': '2019-09-22 09:42:52'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 02:33:17', 'ftime': '2019-09-28 02:33:17', 'context': '[北京分拨中心]订单已从【北京分拨中心】发往【郑州分拨中心】', 'location': '北京分拨中心'}, {'time': '2019-09-27 21:54:43', 'ftime': '2019-09-27 21:54:43', 'context': '[北京分拨中心]订单已到达【北京分拨中心】', 'location': '北京分拨中心'}, {'time': '2019-09-27 18:46:19', 'ftime': '2019-09-27 18:46:19', 'context': '[天津武清三级分拨]订单已从【天津武清三级分拨】发往【北京分拨中心】', 'location': '天津武清三级分拨'}, {'time': '2019-09-27 18:41:38', 'ftime': '2019-09-27 18:41:38', 'context': '[天津武清三级分拨]订单已到达【天津武清三级分拨】', 'location': '天津武清三级分拨'}, {'time': '2019-09-27 18:36:41', 'ftime': '2019-09-27 18:36:41', 'context': '[天津武清营业部]订单已从【天津武清营业部】发往【天津武清三级分拨】', 'location': '天津武清营业部'}, {'time': '2019-09-27 15:55:23', 'ftime': '2019-09-27 15:55:23', 'context': '[天津武清营业部]订单已到达【天津武清营业部】', 'location': '天津武清营业部'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.063433</v>
+        <v>0.071174</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.011326</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-20 09:42:52', 'context': '查无结果', 'ftime': '2019-09-20 09:42:52'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-13 10:07:09', 'context': '查无结果', 'ftime': '2019-09-13 10:07:09'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.062377</v>
+        <v>0.064829</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.011294</v>
+        <v>0.009308</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-10-23 09:03:08', 'ftime': '2018-10-23 09:03:08', 'context': '订单已由公司前台代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-10-23 07:37:16', 'ftime': '2018-10-23 07:37:16', 'context': '配送员开始配送，请您准备收货，配送员，杨浩，手机号，18910328305或010-89370760', 'location': None}, {'time': '2018-10-23 06:04:38', 'ftime': '2018-10-23 06:04:38', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-10-22 22:29:29', 'ftime': '2018-10-22 22:29:29', 'context': '货物已完成分拣，离开【北京亚一分拣中心】', 'location': None}, {'time': '2018-10-22 22:28:34', 'ftime': '2018-10-22 22:28:34', 'context': '货物已到达【北京亚一分拣中心】', 'location': None}, {'time': '2018-10-22 19:50:19', 'ftime': '2018-10-22 19:50:19', 'context': '货物已到达【北京亚一分拣中心】', 'location': None}, {'time': '2018-10-22 17:25:09', 'ftime': '2018-10-22 17:25:09', 'context': '货物已完成分拣，离开【北京通州分拣中心】', 'location': None}, {'time': '2018-10-22 17:16:24', 'ftime': '2018-10-22 17:16:24', 'context': '货物已到达【北京通州分拣中心】', 'location': None}, {'time': '2018-10-22 17:16:03', 'ftime': '2018-10-22 17:16:03', 'context': '货物已到达【北京通州分拣中心】', 'location': None}, {'time': '2018-10-21 20:32:21', 'ftime': '2018-10-21 20:32:21', 'context': '货物已完成分拣，离开【华东外单分拣中心】', 'location': None}, {'time': '2018-10-21 20:27:55', 'ftime': '2018-10-21 20:27:55', 'context': '货物已到达【华东外单分拣中心】', 'location': None}, {'time': '2018-10-21 16:47:17', 'ftime': '2018-10-21 16:47:17', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-10-21 16:47:17', 'ftime': '2018-10-21 16:47:17', 'context': '配送员陈龙已经揽收完成', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 11:48:31', 'ftime': '2019-09-28 11:48:31', 'context': '快件由【东北沈阳枢纽】发往【西北西安枢纽】', 'location': ''}, {'time': '2019-09-28 11:46:18', 'ftime': '2019-09-28 11:46:18', 'context': '快件到达【东北沈阳枢纽】', 'location': ''}, {'time': '2019-09-27 22:30:52', 'ftime': '2019-09-27 22:30:52', 'context': '快件由【黑龙江哈尔滨转运】发往【东北沈阳枢纽】', 'location': ''}, {'time': '2019-09-27 22:30:19', 'ftime': '2019-09-27 22:30:19', 'context': '快件到达【黑龙江哈尔滨转运】', 'location': ''}, {'time': '2019-09-26 18:28:11', 'ftime': '2019-09-26 18:28:11', 'context': '快件由【SN哈尔滨宝清站点】发往【SN哈尔滨公司】', 'location': ''}, {'time': '2019-09-26 18:22:07', 'ftime': '2019-09-26 18:22:07', 'context': '【SN哈尔滨宝清站点】的朗庆松已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.071548</v>
+        <v>0.081925</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010174</v>
+        <v>0.011043</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 06:54:12', 'ftime': '2019-09-28 06:54:12', 'context': '运输中，离开【广州转运中心】，下一站【沈阳转运中心】', 'location': '广州市'}, {'time': '2019-09-27 22:18:20', 'ftime': '2019-09-27 22:18:20', 'context': '货物已到达广州转运中心', 'location': '广州市'}, {'time': '2019-09-27 21:58:44', 'ftime': '2019-09-27 21:58:44', 'context': '运输中，离开【广州天河区大吉路快递分部】，下一站【广州转运中心】', 'location': '广州市'}, {'time': '2019-09-27 19:03:01', 'ftime': '2019-09-27 19:03:01', 'context': '您的订单已被收件员揽收,【广州天河区大吉路快递分部】库存中', 'location': '广州市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 11:07:00', 'ftime': '2019-09-28 11:07:00', 'context': '[杭州市]已签收,感谢使用顺丰,期待再次为您服务', 'location': '杭州市'}, {'time': '2019-09-28 08:07:00', 'ftime': '2019-09-28 08:07:00', 'context': '[杭州市]快件交给张超，正在派送途中（联系电话：13588016046）', 'location': '杭州市'}, {'time': '2019-09-28 07:26:00', 'ftime': '2019-09-28 07:26:00', 'context': '[杭州市]正在派送途中,请您准备签收(派件人:黄天荣,电话:13857151207)', 'location': '杭州市'}, {'time': '2019-09-28 06:09:00', 'ftime': '2019-09-28 06:09:00', 'context': '[杭州市]快件到达 【杭州江干三村佳苑营业部】', 'location': '杭州市'}, {'time': '2019-09-28 05:23:00', 'ftime': '2019-09-28 05:23:00', 'context': '[杭州市]快件已发车', 'location': '杭州市'}, {'time': '2019-09-28 05:22:00', 'ftime': '2019-09-28 05:22:00', 'context': '[杭州市]快件在【杭州下沙中转场】已装车,准备发往 【杭州江干三村佳苑营业部】', 'location': '杭州市'}, {'time': '2019-09-28 01:07:00', 'ftime': '2019-09-28 01:07:00', 'context': '[杭州市]快件到达 【杭州下沙中转场】', 'location': '杭州市'}, {'time': '2019-09-27 22:26:00', 'ftime': '2019-09-27 22:26:00', 'context': '[上海市]快件已发车', 'location': '上海市'}, {'time': '2019-09-27 20:52:00', 'ftime': '2019-09-27 20:52:00', 'context': '[上海市]快件在【上海浦江集散中心】已装车,准备发往 【杭州下沙中转场】', 'location': '上海市'}, {'time': '2019-09-27 20:39:00', 'ftime': '2019-09-27 20:39:00', 'context': '[上海市]快件到达 【上海浦江集散中心】', 'location': '上海市'}, {'time': '2019-09-27 19:49:00', 'ftime': '2019-09-27 19:49:00', 'context': '[上海市]快件已发车', 'location': '上海市'}, {'time': '2019-09-27 19:45:00', 'ftime': '2019-09-27 19:45:00', 'context': '[上海市]快件在【上海浦东川沙营业点】已装车,准备发往下一站', 'location': '上海市'}, {'time': '2019-09-27 19:19:00', 'ftime': '2019-09-27 19:19:00', 'context': '[上海市]顺丰速运 已收取快件', 'location': '上海市'}, {'time': '2019-09-27 19:18:00', 'ftime': '2019-09-27 19:18:00', 'context': '[上海市]顺丰速运 已收取快件', 'location': '上海市'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.070336</v>
+        <v>0.091215</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.011769</v>
+        <v>0.015965</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 09:42:53', 'context': '查无结果', 'ftime': '2019-09-09 09:42:53'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-21 10:07:10', 'context': '查无结果', 'ftime': '2019-09-21 10:07:10'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.063426</v>
+        <v>0.07004000000000001</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.016531</v>
+        <v>0.009821999999999999</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-08-31 09:42:53', 'context': '查无结果', 'ftime': '2019-08-31 09:42:53'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:01:01', 'ftime': '2019-09-29 05:01:01', 'context': '[山东济南分拨中心]进行装车扫描，发往：山东潍坊分拨中心', 'location': '山东济南分拨中心'}, {'time': '2019-09-29 04:58:44', 'ftime': '2019-09-29 04:58:44', 'context': '[山东济南分拨中心]在分拨中心进行卸车扫描', 'location': '山东济南分拨中心'}, {'time': '2019-09-27 22:16:46', 'ftime': '2019-09-27 22:16:46', 'context': '[重庆分拨中心]进行装车扫描，发往：山东济南分拨中心', 'location': '重庆分拨中心'}, {'time': '2019-09-27 21:15:15', 'ftime': '2019-09-27 21:15:15', 'context': '[重庆分拨中心]进行中转集包扫描，发往：山东潍坊分拨中心', 'location': '重庆分拨中心'}, {'time': '2019-09-27 21:01:57', 'ftime': '2019-09-27 21:01:57', 'context': '[重庆分拨中心]在分拨中心进行称重扫描', 'location': '重庆分拨中心'}, {'time': '2019-09-27 17:59:43', 'ftime': '2019-09-27 17:59:43', 'context': '[重庆江北区一公司南桥寺分部]进行揽件扫描', 'location': '重庆江北区一公司南桥寺分部'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.07449</v>
+        <v>0.071449</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.014691</v>
+        <v>0.009351999999999999</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (3).xlsx
+++ b/data_excel/接口测试用例_ (3).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 14:36:12', 'ftime': '2019-09-27 14:36:12', 'context': '深圳市跨境口岸,快件正在清关', 'location': ''}, {'time': '2019-09-27 13:37:08', 'ftime': '2019-09-27 13:37:08', 'context': '深圳市跨境口岸,陆运到达', 'location': ''}, {'time': '2019-09-27 08:44:23', 'ftime': '2019-09-27 08:44:23', 'context': '香港口岸,快件正在清关', 'location': ''}, {'time': '2019-09-27 08:06:15', 'ftime': '2019-09-27 08:06:15', 'context': '香港国际转运中心,国际干线运输已启程,班次号：粤ZDU86港,陆运发出', 'location': ''}, {'time': '2019-09-27 06:29:37', 'ftime': '2019-09-27 06:29:37', 'context': '香港国际转运中心,装件入车扫描,下一站【深圳市跨境口岸】,上车扫描', 'location': ''}, {'time': '2019-09-27 04:41:26', 'ftime': '2019-09-27 04:41:26', 'context': '香港国际转运中心,已出库,等待国际干线运输,上车扫描', 'location': ''}, {'time': '2019-09-27 02:50:39', 'ftime': '2019-09-27 02:50:39', 'context': '香港国际转运中心,已收入', 'location': ''}, {'time': '2019-09-26 19:28:13', 'ftime': '2019-09-26 19:28:13', 'context': '香港新界公司,已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 04:09:04', 'ftime': '2019-09-27 04:09:04', 'context': '【东莞市】 快件离开 【虎门中心】 已发往 【哈尔滨中转】', 'location': None}, {'time': '2019-09-27 03:48:13', 'ftime': '2019-09-27 03:48:13', 'context': '【东莞市】 快件已经到达 【虎门中心】', 'location': None}, {'time': '2019-09-26 23:52:11', 'ftime': '2019-09-26 23:52:11', 'context': '【惠州市】 快件离开 【惠州陈江】 已发往 【哈尔滨中转】', 'location': None}, {'time': '2019-09-26 19:36:59', 'ftime': '2019-09-26 19:36:59', 'context': '【惠州市】 【惠州陈江】（0752-3036001） 的 明惠（13138317370） 已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.069575</v>
+        <v>0.071507</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.010039</v>
+        <v>0.025266</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 08:48:09', 'ftime': '2019-09-27 08:48:09', 'context': '到达【邮政宁德市金涵支局】 宁德市', 'location': ''}, {'time': '2019-09-27 06:58:54', 'ftime': '2019-09-27 06:58:54', 'context': '离开【宁德市邮件处理中心】,下一站【邮政宁德市金涵支局】 宁德市', 'location': ''}, {'time': '2019-09-26 11:59:53', 'ftime': '2019-09-26 11:59:53', 'context': '到达【宁德市邮件处理中心】 宁德市', 'location': ''}, {'time': '2019-09-26 10:03:01', 'ftime': '2019-09-26 10:03:01', 'context': '离开【航空中心】,下一站【宁德市邮件处理中心】（经转） 福州市', 'location': ''}, {'time': '2019-09-26 08:31:36', 'ftime': '2019-09-26 08:31:36', 'context': '到达【航空中心】（经转） 福州市', 'location': ''}, {'time': '2019-09-26 06:29:35', 'ftime': '2019-09-26 06:29:35', 'context': '离开【南航集散】,下一站【航空中心】（经转） 南京市', 'location': ''}, {'time': '2019-09-26 01:18:44', 'ftime': '2019-09-26 01:18:44', 'context': '到达【南航集散】（经转） 南京市', 'location': ''}, {'time': '2019-09-25 20:41:04', 'ftime': '2019-09-25 20:41:04', 'context': '离开【上海市中春路处理中心】,下一站【南航集散】 上海市', 'location': ''}, {'time': '2019-09-25 19:18:46', 'ftime': '2019-09-25 19:18:46', 'context': '到达【上海市中春路处理中心】 上海市', 'location': ''}, {'time': '2019-09-25 18:43:03', 'ftime': '2019-09-25 18:43:03', 'context': '离开【上海市金融服务揽投部】,下一站【沪中春速】 上海市', 'location': ''}, {'time': '2019-09-25 17:27:49', 'ftime': '2019-09-25 17:27:49', 'context': '上海市 【上海市金融服务揽投部】已收件,揽投员:梅龙贞,电话:18918381021', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-13 13:25:15', 'ftime': '2018-11-13 13:25:15', 'context': '订单已由便利店代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-13 08:34:18', 'ftime': '2018-11-13 08:34:18', 'context': '配送员开始配送，请您准备收货，配送员，李朝炫，手机号，18900311121', 'location': None}, {'time': '2018-11-13 07:26:12', 'ftime': '2018-11-13 07:26:12', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-13 07:26:11', 'ftime': '2018-11-13 07:26:11', 'context': '货物已到达【泉州磁灶站】', 'location': None}, {'time': '2018-11-13 05:21:16', 'ftime': '2018-11-13 05:21:16', 'context': '货物已完成分拣，离开【泉州分拨中心】', 'location': None}, {'time': '2018-11-13 00:13:46', 'ftime': '2018-11-13 00:13:46', 'context': '货物已完成分拣，离开【泉州外单分拣中心】', 'location': None}, {'time': '2018-11-12 23:52:56', 'ftime': '2018-11-12 23:52:56', 'context': '货物已到达【泉州外单分拣中心】', 'location': None}, {'time': '2018-11-12 20:59:10', 'ftime': '2018-11-12 20:59:10', 'context': '货物已到达【泉州悠悠驻场】', 'location': None}, {'time': '2018-11-12 20:57:28', 'ftime': '2018-11-12 20:57:28', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-12 20:57:28', 'ftime': '2018-11-12 20:57:28', 'context': '配送员陈苗苗揽收完成', 'location': None}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.07106999999999999</v>
+        <v>0.075199</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.011323</v>
+        <v>0.026781</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:32:42', 'ftime': '2019-09-29 08:32:42', 'context': '[广东东莞大岭山公司]进行派件扫描；派送业务员：黄满棠；联系电话：13267363313', 'location': '广东东莞大岭山公司'}, {'time': '2019-09-28 23:20:17', 'ftime': '2019-09-28 23:20:17', 'context': '[广东东莞分拨中心]从站点发出，本次转运目的地：广东东莞大岭山公司', 'location': '广东东莞分拨中心'}, {'time': '2019-09-28 22:47:30', 'ftime': '2019-09-28 22:47:30', 'context': '[广东东莞分拨中心]在分拨中心进行称重扫描', 'location': '广东东莞分拨中心'}, {'time': '2019-09-28 02:46:18', 'ftime': '2019-09-28 02:46:18', 'context': '[安徽合肥分拨中心]进行装车扫描，发往：广东东莞分拨中心', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-28 01:19:43', 'ftime': '2019-09-28 01:19:43', 'context': '[安徽合肥分拨中心]进行中转集包扫描，发往：广东东莞网点包', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-27 21:46:29', 'ftime': '2019-09-27 21:46:29', 'context': '[安徽合肥分拨中心]在分拨中心进行称重扫描', 'location': '安徽合肥分拨中心'}, {'time': '2019-09-27 16:11:44', 'ftime': '2019-09-27 16:11:44', 'context': '[安徽太和县公司]进行揽件扫描', 'location': '安徽太和县公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:32:35', 'ftime': '2019-09-29 05:32:35', 'context': '[武汉市]快件到达 【武汉吴家山集散中心】', 'location': '武汉市'}, {'time': '2019-09-29 02:14:56', 'ftime': '2019-09-29 02:14:56', 'context': '[武汉市]快件已发车', 'location': '武汉市'}, {'time': '2019-09-28 21:54:42', 'ftime': '2019-09-28 21:54:42', 'context': '[武汉市]快件在【武汉武昌集散中心】已装车,准备发往下一站', 'location': '武汉市'}, {'time': '2019-09-28 20:00:22', 'ftime': '2019-09-28 20:00:22', 'context': '[武汉市]快件到达 【武汉武昌集散中心】', 'location': '武汉市'}, {'time': '2019-09-28 03:22:52', 'ftime': '2019-09-28 03:22:52', 'context': '[柳州市/来宾市]快件已发车', 'location': '柳州市/来宾市'}, {'time': '2019-09-27 18:44:00', 'ftime': '2019-09-27 18:44:00', 'context': '[柳州市/来宾市]快件在【柳州柳南集散点】已装车,准备发往下一站', 'location': '柳州市/来宾市'}, {'time': '2019-09-27 18:14:18', 'ftime': '2019-09-27 18:14:18', 'context': '[柳州市/来宾市]快件到达 【柳州柳南集散点】', 'location': '柳州市/来宾市'}, {'time': '2019-09-27 17:46:25', 'ftime': '2019-09-27 17:46:25', 'context': '[柳州市/来宾市]快件已发车', 'location': '柳州市/来宾市'}, {'time': '2019-09-27 17:33:22', 'ftime': '2019-09-27 17:33:22', 'context': '[柳州市/来宾市]快件在【柳州柳南区集收客户营业部】已装车,准备发往 【柳州柳南集散点】', 'location': '柳州市/来宾市'}, {'time': '2019-09-27 17:33:12', 'ftime': '2019-09-27 17:33:12', 'context': '[柳州市/来宾市]顺丰速运 已收取快件', 'location': '柳州市/来宾市'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.071519</v>
+        <v>0.07872</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.010839</v>
+        <v>0.011454</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 02:33:17', 'ftime': '2019-09-28 02:33:17', 'context': '[北京分拨中心]订单已从【北京分拨中心】发往【郑州分拨中心】', 'location': '北京分拨中心'}, {'time': '2019-09-27 21:54:43', 'ftime': '2019-09-27 21:54:43', 'context': '[北京分拨中心]订单已到达【北京分拨中心】', 'location': '北京分拨中心'}, {'time': '2019-09-27 18:46:19', 'ftime': '2019-09-27 18:46:19', 'context': '[天津武清三级分拨]订单已从【天津武清三级分拨】发往【北京分拨中心】', 'location': '天津武清三级分拨'}, {'time': '2019-09-27 18:41:38', 'ftime': '2019-09-27 18:41:38', 'context': '[天津武清三级分拨]订单已到达【天津武清三级分拨】', 'location': '天津武清三级分拨'}, {'time': '2019-09-27 18:36:41', 'ftime': '2019-09-27 18:36:41', 'context': '[天津武清营业部]订单已从【天津武清营业部】发往【天津武清三级分拨】', 'location': '天津武清营业部'}, {'time': '2019-09-27 15:55:23', 'ftime': '2019-09-27 15:55:23', 'context': '[天津武清营业部]订单已到达【天津武清营业部】', 'location': '天津武清营业部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 13:44:27', 'ftime': '2019-09-28 13:44:27', 'context': '[邮政海南省东方市中沙]在 东方市 已签收,本人签收 :李金院,投递员:林明涛,电话:18289404486', 'location': '邮政海南省东方市中沙'}, {'time': '2019-09-28 09:06:57', 'ftime': '2019-09-28 09:06:57', 'context': '东方市 【邮政海南省东方市中沙】投递结果反馈-未妥投,备注(收件人要求延迟投递:2019-09-29),投递员:林明涛,电话:18289404486', 'location': '邮政海南省东方市中沙'}, {'time': '2019-09-27 15:04:53', 'ftime': '2019-09-27 15:04:53', 'context': '【邮政海南省东方市中沙】安排投递,投递员:林明涛,电话:18289404486', 'location': '邮政海南省东方市中沙'}, {'time': '2019-09-27 13:32:09', 'ftime': '2019-09-27 13:32:09', 'context': '离开【东方处理中心】,下一站【邮政海南省东方市中沙】（经转）', 'location': '东方处理中心'}, {'time': '2019-09-26 18:14:57', 'ftime': '2019-09-26 18:14:57', 'context': '到达【东方处理中心】（经转）', 'location': '东方处理中心'}, {'time': '2019-09-26 17:10:11', 'ftime': '2019-09-26 17:10:11', 'context': '离开【邮政东方市政法路】,下一站【东方中心】', 'location': '邮政东方市政法路'}, {'time': '2019-09-26 11:50:17', 'ftime': '2019-09-26 11:50:17', 'context': '东方市 【邮政东方市政法路】已收件,揽投员:蔡运炜,电话:13519870298', 'location': '邮政东方市政法路'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.071174</v>
+        <v>0.09064700000000001</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.01033</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-13 10:07:09', 'context': '查无结果', 'ftime': '2019-09-13 10:07:09'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 00:41:49', 'ftime': '2019-09-29 00:41:49', 'context': '快件已装车完成，下一站：【福建泉州分拨中心】', 'location': '湖南省-长沙市-湖南长沙分拨中心'}, {'time': '2019-09-28 23:21:36', 'ftime': '2019-09-28 23:21:36', 'context': '快件在【湖南长沙分拨中心】已操作进站扫描', 'location': '湖南省-长沙市-湖南长沙分拨中心'}, {'time': '2019-09-27 19:07:10', 'ftime': '2019-09-27 19:07:10', 'context': '快件已从【湘潭县站】 出站， 下一站：【湖南长沙分拨中心】', 'location': '湖南省-湘潭市-湘潭县站'}, {'time': '2019-09-27 17:21:30', 'ftime': '2019-09-27 17:21:30', 'context': '快件已在【湘潭县站】揽件入站', 'location': '湖南省-湘潭市-湘潭县站'}, {'time': '2019-09-27 16:43:03', 'ftime': '2019-09-27 16:43:03', 'context': '快件已揽件完成', 'location': '湖南省-湘潭市-湘潭县站'}, {'time': '2019-09-27 16:43:02', 'ftime': '2019-09-27 16:43:02', 'context': '物流订单已创建', 'location': '湖南省-湘潭市-湘潭县站'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.064829</v>
+        <v>0.074417</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.009308</v>
+        <v>0.016818</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 11:48:31', 'ftime': '2019-09-28 11:48:31', 'context': '快件由【东北沈阳枢纽】发往【西北西安枢纽】', 'location': ''}, {'time': '2019-09-28 11:46:18', 'ftime': '2019-09-28 11:46:18', 'context': '快件到达【东北沈阳枢纽】', 'location': ''}, {'time': '2019-09-27 22:30:52', 'ftime': '2019-09-27 22:30:52', 'context': '快件由【黑龙江哈尔滨转运】发往【东北沈阳枢纽】', 'location': ''}, {'time': '2019-09-27 22:30:19', 'ftime': '2019-09-27 22:30:19', 'context': '快件到达【黑龙江哈尔滨转运】', 'location': ''}, {'time': '2019-09-26 18:28:11', 'ftime': '2019-09-26 18:28:11', 'context': '快件由【SN哈尔滨宝清站点】发往【SN哈尔滨公司】', 'location': ''}, {'time': '2019-09-26 18:22:07', 'ftime': '2019-09-26 18:22:07', 'context': '【SN哈尔滨宝清站点】的朗庆松已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:21:04', 'ftime': '2019-09-29 09:21:04', 'context': '货物已到达宁波鄞州区瞻岐滨海营业部', 'location': '宁波市'}, {'time': '2019-09-29 06:25:47', 'ftime': '2019-09-29 06:25:47', 'context': '运输中，离开【宁波转运场】，下一站【宁波鄞州区瞻岐滨海营业部】', 'location': '宁波市'}, {'time': '2019-09-29 01:00:26', 'ftime': '2019-09-29 01:00:26', 'context': '货物已到达宁波转运场', 'location': '宁波市'}, {'time': '2019-09-28 22:22:30', 'ftime': '2019-09-28 22:22:30', 'context': '运输中，离开【杭州枢纽中心】，下一站【宁波转运场】', 'location': '杭州市'}, {'time': '2019-09-28 20:43:51', 'ftime': '2019-09-28 20:43:51', 'context': '货物已到达杭州枢纽中心', 'location': '杭州市'}, {'time': '2019-09-28 20:22:37', 'ftime': '2019-09-28 20:22:37', 'context': '运输中，离开【嘉兴海宁盐仓镇营业部】，下一站【杭州枢纽中心】', 'location': '嘉兴市'}, {'time': '2019-09-28 17:49:13', 'ftime': '2019-09-28 17:49:13', 'context': '您的订单已被收件员揽收,【嘉兴海宁盐仓镇营业部】库存中', 'location': '嘉兴市'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.081925</v>
+        <v>0.073633</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.011043</v>
+        <v>0.011627</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 11:07:00', 'ftime': '2019-09-28 11:07:00', 'context': '[杭州市]已签收,感谢使用顺丰,期待再次为您服务', 'location': '杭州市'}, {'time': '2019-09-28 08:07:00', 'ftime': '2019-09-28 08:07:00', 'context': '[杭州市]快件交给张超，正在派送途中（联系电话：13588016046）', 'location': '杭州市'}, {'time': '2019-09-28 07:26:00', 'ftime': '2019-09-28 07:26:00', 'context': '[杭州市]正在派送途中,请您准备签收(派件人:黄天荣,电话:13857151207)', 'location': '杭州市'}, {'time': '2019-09-28 06:09:00', 'ftime': '2019-09-28 06:09:00', 'context': '[杭州市]快件到达 【杭州江干三村佳苑营业部】', 'location': '杭州市'}, {'time': '2019-09-28 05:23:00', 'ftime': '2019-09-28 05:23:00', 'context': '[杭州市]快件已发车', 'location': '杭州市'}, {'time': '2019-09-28 05:22:00', 'ftime': '2019-09-28 05:22:00', 'context': '[杭州市]快件在【杭州下沙中转场】已装车,准备发往 【杭州江干三村佳苑营业部】', 'location': '杭州市'}, {'time': '2019-09-28 01:07:00', 'ftime': '2019-09-28 01:07:00', 'context': '[杭州市]快件到达 【杭州下沙中转场】', 'location': '杭州市'}, {'time': '2019-09-27 22:26:00', 'ftime': '2019-09-27 22:26:00', 'context': '[上海市]快件已发车', 'location': '上海市'}, {'time': '2019-09-27 20:52:00', 'ftime': '2019-09-27 20:52:00', 'context': '[上海市]快件在【上海浦江集散中心】已装车,准备发往 【杭州下沙中转场】', 'location': '上海市'}, {'time': '2019-09-27 20:39:00', 'ftime': '2019-09-27 20:39:00', 'context': '[上海市]快件到达 【上海浦江集散中心】', 'location': '上海市'}, {'time': '2019-09-27 19:49:00', 'ftime': '2019-09-27 19:49:00', 'context': '[上海市]快件已发车', 'location': '上海市'}, {'time': '2019-09-27 19:45:00', 'ftime': '2019-09-27 19:45:00', 'context': '[上海市]快件在【上海浦东川沙营业点】已装车,准备发往下一站', 'location': '上海市'}, {'time': '2019-09-27 19:19:00', 'ftime': '2019-09-27 19:19:00', 'context': '[上海市]顺丰速运 已收取快件', 'location': '上海市'}, {'time': '2019-09-27 19:18:00', 'ftime': '2019-09-27 19:18:00', 'context': '[上海市]顺丰速运 已收取快件', 'location': '上海市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-11 10:22:12', 'context': '查无结果', 'ftime': '2019-09-11 10:22:12'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.091215</v>
+        <v>0.074485</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.015965</v>
+        <v>0.011231</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-21 10:07:10', 'context': '查无结果', 'ftime': '2019-09-21 10:07:10'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:22:13', 'context': '查无结果', 'ftime': '2019-09-10 10:22:13'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.07004000000000001</v>
+        <v>0.064843</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.009821999999999999</v>
+        <v>0.17423</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:01:01', 'ftime': '2019-09-29 05:01:01', 'context': '[山东济南分拨中心]进行装车扫描，发往：山东潍坊分拨中心', 'location': '山东济南分拨中心'}, {'time': '2019-09-29 04:58:44', 'ftime': '2019-09-29 04:58:44', 'context': '[山东济南分拨中心]在分拨中心进行卸车扫描', 'location': '山东济南分拨中心'}, {'time': '2019-09-27 22:16:46', 'ftime': '2019-09-27 22:16:46', 'context': '[重庆分拨中心]进行装车扫描，发往：山东济南分拨中心', 'location': '重庆分拨中心'}, {'time': '2019-09-27 21:15:15', 'ftime': '2019-09-27 21:15:15', 'context': '[重庆分拨中心]进行中转集包扫描，发往：山东潍坊分拨中心', 'location': '重庆分拨中心'}, {'time': '2019-09-27 21:01:57', 'ftime': '2019-09-27 21:01:57', 'context': '[重庆分拨中心]在分拨中心进行称重扫描', 'location': '重庆分拨中心'}, {'time': '2019-09-27 17:59:43', 'ftime': '2019-09-27 17:59:43', 'context': '[重庆江北区一公司南桥寺分部]进行揽件扫描', 'location': '重庆江北区一公司南桥寺分部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 13:35:36', 'ftime': '2019-09-27 13:35:36', 'context': '[上海分拨中心]从站点发出，本次转运目的地：上海长宁区西部公司', 'location': None}, {'time': '2019-09-27 13:27:01', 'ftime': '2019-09-27 13:27:01', 'context': '[上海分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-09-26 19:52:22', 'ftime': '2019-09-26 19:52:22', 'context': '[河南漯河分拨中心]进行装车扫描，发往：上海分拨中心', 'location': None}, {'time': '2019-09-26 19:48:28', 'ftime': '2019-09-26 19:48:28', 'context': '[河南漯河公司]进行发出扫描，发往：河南漯河分拨中心', 'location': None}, {'time': '2019-09-26 19:43:22', 'ftime': '2019-09-26 19:43:22', 'context': '[河南漯河分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-09-26 18:24:56', 'ftime': '2019-09-26 18:24:56', 'context': '[河南漯河公司]进行下级地点扫描，发往：上海分拨中心', 'location': None}, {'time': '2019-09-26 17:27:07', 'ftime': '2019-09-26 17:27:07', 'context': '[河南漯河公司召陵新区分部]进行揽件扫描', 'location': None}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.071449</v>
+        <v>0.075015</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009351999999999999</v>
+        <v>0.016728</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (3).xlsx
+++ b/data_excel/接口测试用例_ (3).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 04:09:04', 'ftime': '2019-09-27 04:09:04', 'context': '【东莞市】 快件离开 【虎门中心】 已发往 【哈尔滨中转】', 'location': None}, {'time': '2019-09-27 03:48:13', 'ftime': '2019-09-27 03:48:13', 'context': '【东莞市】 快件已经到达 【虎门中心】', 'location': None}, {'time': '2019-09-26 23:52:11', 'ftime': '2019-09-26 23:52:11', 'context': '【惠州市】 快件离开 【惠州陈江】 已发往 【哈尔滨中转】', 'location': None}, {'time': '2019-09-26 19:36:59', 'ftime': '2019-09-26 19:36:59', 'context': '【惠州市】 【惠州陈江】（0752-3036001） 的 明惠（13138317370） 已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 10:28:23', 'context': '查无结果', 'ftime': '2019-09-05 10:28:23'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.071507</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.025266</v>
+        <v>0.010083</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-13 13:25:15', 'ftime': '2018-11-13 13:25:15', 'context': '订单已由便利店代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-13 08:34:18', 'ftime': '2018-11-13 08:34:18', 'context': '配送员开始配送，请您准备收货，配送员，李朝炫，手机号，18900311121', 'location': None}, {'time': '2018-11-13 07:26:12', 'ftime': '2018-11-13 07:26:12', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-13 07:26:11', 'ftime': '2018-11-13 07:26:11', 'context': '货物已到达【泉州磁灶站】', 'location': None}, {'time': '2018-11-13 05:21:16', 'ftime': '2018-11-13 05:21:16', 'context': '货物已完成分拣，离开【泉州分拨中心】', 'location': None}, {'time': '2018-11-13 00:13:46', 'ftime': '2018-11-13 00:13:46', 'context': '货物已完成分拣，离开【泉州外单分拣中心】', 'location': None}, {'time': '2018-11-12 23:52:56', 'ftime': '2018-11-12 23:52:56', 'context': '货物已到达【泉州外单分拣中心】', 'location': None}, {'time': '2018-11-12 20:59:10', 'ftime': '2018-11-12 20:59:10', 'context': '货物已到达【泉州悠悠驻场】', 'location': None}, {'time': '2018-11-12 20:57:28', 'ftime': '2018-11-12 20:57:28', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-12 20:57:28', 'ftime': '2018-11-12 20:57:28', 'context': '配送员陈苗苗揽收完成', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 10:28:23', 'context': '查无结果', 'ftime': '2019-09-05 10:28:23'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.075199</v>
+        <v>0.063537</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.026781</v>
+        <v>0.010785</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:32:35', 'ftime': '2019-09-29 05:32:35', 'context': '[武汉市]快件到达 【武汉吴家山集散中心】', 'location': '武汉市'}, {'time': '2019-09-29 02:14:56', 'ftime': '2019-09-29 02:14:56', 'context': '[武汉市]快件已发车', 'location': '武汉市'}, {'time': '2019-09-28 21:54:42', 'ftime': '2019-09-28 21:54:42', 'context': '[武汉市]快件在【武汉武昌集散中心】已装车,准备发往下一站', 'location': '武汉市'}, {'time': '2019-09-28 20:00:22', 'ftime': '2019-09-28 20:00:22', 'context': '[武汉市]快件到达 【武汉武昌集散中心】', 'location': '武汉市'}, {'time': '2019-09-28 03:22:52', 'ftime': '2019-09-28 03:22:52', 'context': '[柳州市/来宾市]快件已发车', 'location': '柳州市/来宾市'}, {'time': '2019-09-27 18:44:00', 'ftime': '2019-09-27 18:44:00', 'context': '[柳州市/来宾市]快件在【柳州柳南集散点】已装车,准备发往下一站', 'location': '柳州市/来宾市'}, {'time': '2019-09-27 18:14:18', 'ftime': '2019-09-27 18:14:18', 'context': '[柳州市/来宾市]快件到达 【柳州柳南集散点】', 'location': '柳州市/来宾市'}, {'time': '2019-09-27 17:46:25', 'ftime': '2019-09-27 17:46:25', 'context': '[柳州市/来宾市]快件已发车', 'location': '柳州市/来宾市'}, {'time': '2019-09-27 17:33:22', 'ftime': '2019-09-27 17:33:22', 'context': '[柳州市/来宾市]快件在【柳州柳南区集收客户营业部】已装车,准备发往 【柳州柳南集散点】', 'location': '柳州市/来宾市'}, {'time': '2019-09-27 17:33:12', 'ftime': '2019-09-27 17:33:12', 'context': '[柳州市/来宾市]顺丰速运 已收取快件', 'location': '柳州市/来宾市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:28:23', 'context': '查无结果', 'ftime': '2019-09-10 10:28:23'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.07872</v>
+        <v>0.06769799999999999</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.011454</v>
+        <v>0.009912000000000001</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 13:44:27', 'ftime': '2019-09-28 13:44:27', 'context': '[邮政海南省东方市中沙]在 东方市 已签收,本人签收 :李金院,投递员:林明涛,电话:18289404486', 'location': '邮政海南省东方市中沙'}, {'time': '2019-09-28 09:06:57', 'ftime': '2019-09-28 09:06:57', 'context': '东方市 【邮政海南省东方市中沙】投递结果反馈-未妥投,备注(收件人要求延迟投递:2019-09-29),投递员:林明涛,电话:18289404486', 'location': '邮政海南省东方市中沙'}, {'time': '2019-09-27 15:04:53', 'ftime': '2019-09-27 15:04:53', 'context': '【邮政海南省东方市中沙】安排投递,投递员:林明涛,电话:18289404486', 'location': '邮政海南省东方市中沙'}, {'time': '2019-09-27 13:32:09', 'ftime': '2019-09-27 13:32:09', 'context': '离开【东方处理中心】,下一站【邮政海南省东方市中沙】（经转）', 'location': '东方处理中心'}, {'time': '2019-09-26 18:14:57', 'ftime': '2019-09-26 18:14:57', 'context': '到达【东方处理中心】（经转）', 'location': '东方处理中心'}, {'time': '2019-09-26 17:10:11', 'ftime': '2019-09-26 17:10:11', 'context': '离开【邮政东方市政法路】,下一站【东方中心】', 'location': '邮政东方市政法路'}, {'time': '2019-09-26 11:50:17', 'ftime': '2019-09-26 11:50:17', 'context': '东方市 【邮政东方市政法路】已收件,揽投员:蔡运炜,电话:13519870298', 'location': '邮政东方市政法路'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 07:54:28', 'ftime': '2019-09-29 07:54:28', 'context': '[上海市]快件交给曹中峰，正在派送途中（联系电话：15000931415）', 'location': '上海市'}, {'time': '2019-09-29 07:46:02', 'ftime': '2019-09-29 07:46:02', 'context': '[上海市]快件交给翟光虎，正在派送途中（联系电话：15000928649）', 'location': '上海市'}, {'time': '2019-09-29 05:37:02', 'ftime': '2019-09-29 05:37:02', 'context': '[上海市]正在派送途中,请您准备签收(派件人:陆安勇,电话:13761395792)', 'location': '上海市'}, {'time': '2019-09-29 04:50:34', 'ftime': '2019-09-29 04:50:34', 'context': '[上海市]快件到达 【上海闵行昌林营业点】', 'location': '上海市'}, {'time': '2019-09-29 02:41:34', 'ftime': '2019-09-29 02:41:34', 'context': '[上海市]快件已发车', 'location': '上海市'}, {'time': '2019-09-29 01:29:32', 'ftime': '2019-09-29 01:29:32', 'context': '[上海市]快件在【上海浦江集散中心】已装车,准备发往下一站', 'location': '上海市'}, {'time': '2019-09-28 20:09:11', 'ftime': '2019-09-28 20:09:11', 'context': '[上海市]快件到达 【上海浦江集散中心】', 'location': '上海市'}, {'time': '2019-09-28 19:09:04', 'ftime': '2019-09-28 19:09:04', 'context': '[上海市]快件在【上海浦东高东营业点】已装车,准备发往 【上海浦江集散中心】', 'location': '上海市'}, {'time': '2019-09-28 14:48:48', 'ftime': '2019-09-28 14:48:48', 'context': '[上海市]顺丰速运 已收取快件', 'location': '上海市'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.09064700000000001</v>
+        <v>0.072004</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.01033</v>
+        <v>0.009920999999999999</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 00:41:49', 'ftime': '2019-09-29 00:41:49', 'context': '快件已装车完成，下一站：【福建泉州分拨中心】', 'location': '湖南省-长沙市-湖南长沙分拨中心'}, {'time': '2019-09-28 23:21:36', 'ftime': '2019-09-28 23:21:36', 'context': '快件在【湖南长沙分拨中心】已操作进站扫描', 'location': '湖南省-长沙市-湖南长沙分拨中心'}, {'time': '2019-09-27 19:07:10', 'ftime': '2019-09-27 19:07:10', 'context': '快件已从【湘潭县站】 出站， 下一站：【湖南长沙分拨中心】', 'location': '湖南省-湘潭市-湘潭县站'}, {'time': '2019-09-27 17:21:30', 'ftime': '2019-09-27 17:21:30', 'context': '快件已在【湘潭县站】揽件入站', 'location': '湖南省-湘潭市-湘潭县站'}, {'time': '2019-09-27 16:43:03', 'ftime': '2019-09-27 16:43:03', 'context': '快件已揽件完成', 'location': '湖南省-湘潭市-湘潭县站'}, {'time': '2019-09-27 16:43:02', 'ftime': '2019-09-27 16:43:02', 'context': '物流订单已创建', 'location': '湖南省-湘潭市-湘潭县站'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-08 10:28:23', 'context': '查无结果', 'ftime': '2019-09-08 10:28:23'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.074417</v>
+        <v>0.06655800000000001</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.016818</v>
+        <v>0.011972</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:21:04', 'ftime': '2019-09-29 09:21:04', 'context': '货物已到达宁波鄞州区瞻岐滨海营业部', 'location': '宁波市'}, {'time': '2019-09-29 06:25:47', 'ftime': '2019-09-29 06:25:47', 'context': '运输中，离开【宁波转运场】，下一站【宁波鄞州区瞻岐滨海营业部】', 'location': '宁波市'}, {'time': '2019-09-29 01:00:26', 'ftime': '2019-09-29 01:00:26', 'context': '货物已到达宁波转运场', 'location': '宁波市'}, {'time': '2019-09-28 22:22:30', 'ftime': '2019-09-28 22:22:30', 'context': '运输中，离开【杭州枢纽中心】，下一站【宁波转运场】', 'location': '杭州市'}, {'time': '2019-09-28 20:43:51', 'ftime': '2019-09-28 20:43:51', 'context': '货物已到达杭州枢纽中心', 'location': '杭州市'}, {'time': '2019-09-28 20:22:37', 'ftime': '2019-09-28 20:22:37', 'context': '运输中，离开【嘉兴海宁盐仓镇营业部】，下一站【杭州枢纽中心】', 'location': '嘉兴市'}, {'time': '2019-09-28 17:49:13', 'ftime': '2019-09-28 17:49:13', 'context': '您的订单已被收件员揽收,【嘉兴海宁盐仓镇营业部】库存中', 'location': '嘉兴市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:39:06', 'ftime': '2019-09-29 09:39:06', 'context': '配送员开始配送，请您准备收货，配送员，周云伟，手机号，17398224446', 'location': ''}, {'time': '2019-09-29 07:53:17', 'ftime': '2019-09-29 07:53:17', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-29 07:53:16', 'ftime': '2019-09-29 07:53:16', 'context': '货物已到达【荆州洪湖营业部】', 'location': ''}, {'time': '2019-09-28 23:10:19', 'ftime': '2019-09-28 23:10:19', 'context': '货物已完成分拣，离开【武汉亚一分拣中心】', 'location': ''}, {'time': '2019-09-28 22:11:15', 'ftime': '2019-09-28 22:11:15', 'context': '货物已到达【武汉亚一分拣中心】', 'location': ''}, {'time': '2019-09-28 00:46:52', 'ftime': '2019-09-28 00:46:52', 'context': '货物已完成分拣，离开【北京通州分拣中心】', 'location': ''}, {'time': '2019-09-28 00:45:58', 'ftime': '2019-09-28 00:45:58', 'context': '货物已到达【北京通州分拣中心】', 'location': ''}, {'time': '2019-09-27 22:53:42', 'ftime': '2019-09-27 22:53:42', 'context': '货物已完成分拣，离开【北京顺义分拣中心】', 'location': ''}, {'time': '2019-09-27 22:53:39', 'ftime': '2019-09-27 22:53:39', 'context': '尊敬的客户您好，受重大活动影响，预计到货会有延迟，我们正在全力为您服务，敬请谅解;', 'location': ''}, {'time': '2019-09-27 15:00:44', 'ftime': '2019-09-27 15:00:44', 'context': '受尊敬的客户您好，受重大活动影响，预计到货会有延迟，我们正在全力为您服务，敬请谅解;', 'location': ''}, {'time': '2019-09-27 15:00:41', 'ftime': '2019-09-27 15:00:41', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 15:00:41', 'ftime': '2019-09-27 15:00:41', 'context': '配送员刘宝同已经揽收完成', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.073633</v>
+        <v>0.071049</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.011627</v>
+        <v>0.009679999999999999</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-11 10:22:12', 'context': '查无结果', 'ftime': '2019-09-11 10:22:12'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-08-13 18:35:59', 'ftime': '2018-08-13 18:35:59', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-08-13 18:35:15', 'ftime': '2018-08-13 18:35:15', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-08-13 19:00:00', 'location': None}, {'time': '2018-08-13 16:15:35', 'ftime': '2018-08-13 16:15:35', 'context': ' 配送员：张志远已出发，手机号：18502588183或85288016，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-08-13 14:05:01', 'ftime': '2018-08-13 14:05:01', 'context': ' 取件任务分配给常州长虹站', 'location': None}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.074485</v>
+        <v>0.074143</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.011231</v>
+        <v>0.009431</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:22:13', 'context': '查无结果', 'ftime': '2019-09-10 10:22:13'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'F10', 'com': 'zhongtong', 'status': '200', 'state': '2', 'data': [{'time': '2019-09-27 18:17:54', 'ftime': '2019-09-27 18:17:54', 'context': '[山西运城公司红旗东街云湖湾便民寄存点分部]快件异常；备注：客户拒收', 'location': '山西运城公司红旗东街云湖湾便民寄存点分部'}, {'time': '2019-09-27 15:20:40', 'ftime': '2019-09-27 15:20:40', 'context': '[山西运城公司红旗东街云湖湾便民寄存点分部]进行派件扫描；派送业务员：王全；联系电话：17734935300', 'location': '山西运城公司红旗东街云湖湾便民寄存点分部'}, {'time': '2019-09-27 12:21:20', 'ftime': '2019-09-27 12:21:20', 'context': '[山西运城公司]进行快件扫描，发往：山西运城公司东城分部', 'location': '山西运城公司'}, {'time': '2019-09-27 05:05:39', 'ftime': '2019-09-27 05:05:39', 'context': '[河南郑州分拨中心]从站点发出，本次转运目的地：山西运城公司', 'location': '河南郑州分拨中心'}, {'time': '2019-09-27 05:01:53', 'ftime': '2019-09-27 05:01:53', 'context': '[河南郑州分拨中心]在分拨中心进行卸车扫描', 'location': '河南郑州分拨中心'}, {'time': '2019-09-25 22:30:10', 'ftime': '2019-09-25 22:30:10', 'context': '[广东深圳公司]进行装车扫描，发往：河南郑州分拨中心', 'location': '广东深圳公司'}, {'time': '2019-09-25 22:28:17', 'ftime': '2019-09-25 22:28:17', 'context': '[广东深圳公司]进行揽件扫描', 'location': '广东深圳公司'}, {'time': '2019-09-25 22:23:10', 'ftime': '2019-09-25 22:23:10', 'context': '[广东深圳公司]在分拨中心进行称重扫描', 'location': '广东深圳公司'}, {'time': '2019-09-25 06:17:20', 'ftime': '2019-09-25 06:17:20', 'context': '[广东深圳公司市场开发部分部]进行下级地点扫描，发往：山西运城公司', 'location': '广东深圳公司市场开发部分部'}, {'time': '2019-09-25 03:51:13', 'ftime': '2019-09-25 03:51:13', 'context': '[广东深圳公司市场开发部分部]进行揽件扫描', 'location': '广东深圳公司市场开发部分部'}, {'time': '2019-09-24 20:20:13', 'ftime': '2019-09-24 20:20:13', 'context': '[广东深圳公司骏达当纳利-KH分部]进行揽件扫描', 'location': '广东深圳公司骏达当纳利-KH分部'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.064843</v>
+        <v>0.072327</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.17423</v>
+        <v>0.009939</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 13:35:36', 'ftime': '2019-09-27 13:35:36', 'context': '[上海分拨中心]从站点发出，本次转运目的地：上海长宁区西部公司', 'location': None}, {'time': '2019-09-27 13:27:01', 'ftime': '2019-09-27 13:27:01', 'context': '[上海分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-09-26 19:52:22', 'ftime': '2019-09-26 19:52:22', 'context': '[河南漯河分拨中心]进行装车扫描，发往：上海分拨中心', 'location': None}, {'time': '2019-09-26 19:48:28', 'ftime': '2019-09-26 19:48:28', 'context': '[河南漯河公司]进行发出扫描，发往：河南漯河分拨中心', 'location': None}, {'time': '2019-09-26 19:43:22', 'ftime': '2019-09-26 19:43:22', 'context': '[河南漯河分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-09-26 18:24:56', 'ftime': '2019-09-26 18:24:56', 'context': '[河南漯河公司]进行下级地点扫描，发往：上海分拨中心', 'location': None}, {'time': '2019-09-26 17:27:07', 'ftime': '2019-09-26 17:27:07', 'context': '[河南漯河公司召陵新区分部]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 14:57:26', 'ftime': '2019-09-28 14:57:26', 'context': '客户签收人: 朱师傅代收18607127446 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：15307197822，投诉电话：15307197822', 'location': ''}, {'time': '2019-09-28 08:55:33', 'ftime': '2019-09-28 08:55:33', 'context': '【湖北省武汉市武昌区徐东铁四院分部公司】 派件中 派件人: 胡军 电话 15307197822 如有疑问，请联系：15307197822', 'location': ''}, {'time': '2019-09-28 06:17:42', 'ftime': '2019-09-28 06:17:42', 'context': '【湖北省武汉市武昌区徐东公司】 已收入', 'location': ''}, {'time': '2019-09-27 20:23:06', 'ftime': '2019-09-27 20:23:06', 'context': '【武昌转运中心】 已发出 下一站 【湖北省武汉市武昌区徐东】', 'location': ''}, {'time': '2019-09-27 19:30:55', 'ftime': '2019-09-27 19:30:55', 'context': '【武昌转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 23:30:17', 'ftime': '2019-09-26 23:30:17', 'context': '【泉州转运中心】 已发出 下一站 【武昌转运中心】', 'location': ''}, {'time': '2019-09-26 23:28:02', 'ftime': '2019-09-26 23:28:02', 'context': '【泉州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 21:54:07', 'ftime': '2019-09-26 21:54:07', 'context': '【福建省泉州市晋江市桥南】 已发出 下一站 【泉州转运中心】', 'location': ''}, {'time': '2019-09-26 21:54:01', 'ftime': '2019-09-26 21:54:01', 'context': '【福建省泉州市晋江市桥南公司】 已收件 取件人: 王文发 (13959978147)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.075015</v>
+        <v>0.07075099999999999</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.016728</v>
+        <v>0.010208</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (3).xlsx
+++ b/data_excel/接口测试用例_ (3).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 10:28:23', 'context': '查无结果', 'ftime': '2019-09-05 10:28:23'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 15:34:44', 'ftime': '2019-09-29 15:34:44', 'context': '[茂名市]邮政广东省信宜市白石】安排投递,投递员:刘云飞,电话:17376888427', 'location': None}, {'time': '2019-09-29 14:37:05', 'ftime': '2019-09-29 14:37:05', 'context': '[茂名市]到达【邮政广东省信宜市白石】', 'location': None}, {'time': '2019-09-29 12:01:57', 'ftime': '2019-09-29 12:01:57', 'context': '[茂名市]离开【信宜邮运】,下一站【邮政广东省信宜市白石】', 'location': None}, {'time': '2019-09-28 10:57:59', 'ftime': '2019-09-28 10:57:59', 'context': '[茂名市]到达【茂名转运】', 'location': None}, {'time': '2019-09-28 05:31:38', 'ftime': '2019-09-28 05:31:38', 'context': '[广州市]离开【广州机北】,下一站【茂名转运】（经转）', 'location': None}, {'time': '2019-09-27 23:30:17', 'ftime': '2019-09-27 23:30:17', 'context': '[广州市]到达【广东航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-09-27 19:29:51', 'ftime': '2019-09-27 19:29:51', 'context': '[南宁市]离开【南宁航空邮件交换站】,下一站【广东航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-09-27 01:44:04', 'ftime': '2019-09-27 01:44:04', 'context': '[南宁市]到达【南宁中心】（经转）', 'location': None}, {'time': '2019-09-26 22:32:56', 'ftime': '2019-09-26 22:32:56', 'context': '离开【来宾市邮件处理中心】,下一站【南宁中心】', 'location': None}, {'time': '2019-09-26 16:53:27', 'ftime': '2019-09-26 16:53:27', 'context': '[来宾市]到达【忻城县处理中心（营业部）】', 'location': None}, {'time': '2019-09-26 16:52:37', 'ftime': '2019-09-26 16:52:37', 'context': '[来宾市]离开【邮政忻城县翠屏西路】,下一站【忻城处理】', 'location': None}, {'time': '2019-09-26 14:00:03', 'ftime': '2019-09-26 14:00:03', 'context': '[来宾市]【邮政忻城县翠屏西路】已收件,揽投员:蒙金贵,电话:13597091092', 'location': None}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.06859999999999999</v>
+        <v>0.073548</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.010083</v>
+        <v>0.011457</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 10:28:23', 'context': '查无结果', 'ftime': '2019-09-05 10:28:23'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-08-05 19:38:17', 'ftime': '2019-08-05 19:38:17', 'context': '[南宁市]邮件投递到：云表邮政投递自提点,投递员:甘英姿,电话:18074713315', 'location': None}, {'time': '2019-08-05 10:18:44', 'ftime': '2019-08-05 10:18:44', 'context': '[南宁市]邮政横县云表邮电】安排投递,投递员:甘英姿,电话:18074713315', 'location': None}, {'time': '2019-08-04 10:25:54', 'ftime': '2019-08-04 10:25:54', 'context': '[南宁市]离开【横县邮件处理中心】,下一站【邮政横县云表邮电】（经转）', 'location': None}, {'time': '2019-08-03 10:53:30', 'ftime': '2019-08-03 10:53:30', 'context': '[南宁市]到达【南宁航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-03 09:17:46', 'ftime': '2019-08-03 09:17:46', 'context': '[南昌市]离开【南昌航空邮件处理中心】,下一站【南宁航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-03 07:57:25', 'ftime': '2019-08-03 07:57:25', 'context': '[南昌市]到达【南昌航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-03 06:49:33', 'ftime': '2019-08-03 06:49:33', 'context': '[南京市]离开【南航集散】,下一站【南昌航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-03 02:43:26', 'ftime': '2019-08-03 02:43:26', 'context': '[南京市]到达【南航集散】（经转）', 'location': None}, {'time': '2019-08-03 00:22:07', 'ftime': '2019-08-03 00:22:07', 'context': '[广州市]离开【广东航空邮件处理中心】,下一站【南航集散】（经转）', 'location': None}, {'time': '2019-08-02 19:45:21', 'ftime': '2019-08-02 19:45:21', 'context': '[广州市]到达【广东航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-02 16:26:45', 'ftime': '2019-08-02 16:26:45', 'context': '离开【珠海市邮件处理中心】,下一站【广东航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-02 12:25:57', 'ftime': '2019-08-02 12:25:57', 'context': '到达【珠海市邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-02 12:11:45', 'ftime': '2019-08-02 12:11:45', 'context': '离开【珠海市福溪揽投部】,下一站【珠海速处】', 'location': None}, {'time': '2019-08-02 11:25:47', 'ftime': '2019-08-02 11:25:47', 'context': '【珠海市福溪揽投部】已收件,揽投员:方小兰,电话:18675629593', 'location': None}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.063537</v>
+        <v>0.071808</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.010785</v>
+        <v>0.037839</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:28:23', 'context': '查无结果', 'ftime': '2019-09-10 10:28:23'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 16:10:52', 'context': '查无结果', 'ftime': '2019-09-16 16:10:52'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.06769799999999999</v>
+        <v>0.068687</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009912000000000001</v>
+        <v>0.009209</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 07:54:28', 'ftime': '2019-09-29 07:54:28', 'context': '[上海市]快件交给曹中峰，正在派送途中（联系电话：15000931415）', 'location': '上海市'}, {'time': '2019-09-29 07:46:02', 'ftime': '2019-09-29 07:46:02', 'context': '[上海市]快件交给翟光虎，正在派送途中（联系电话：15000928649）', 'location': '上海市'}, {'time': '2019-09-29 05:37:02', 'ftime': '2019-09-29 05:37:02', 'context': '[上海市]正在派送途中,请您准备签收(派件人:陆安勇,电话:13761395792)', 'location': '上海市'}, {'time': '2019-09-29 04:50:34', 'ftime': '2019-09-29 04:50:34', 'context': '[上海市]快件到达 【上海闵行昌林营业点】', 'location': '上海市'}, {'time': '2019-09-29 02:41:34', 'ftime': '2019-09-29 02:41:34', 'context': '[上海市]快件已发车', 'location': '上海市'}, {'time': '2019-09-29 01:29:32', 'ftime': '2019-09-29 01:29:32', 'context': '[上海市]快件在【上海浦江集散中心】已装车,准备发往下一站', 'location': '上海市'}, {'time': '2019-09-28 20:09:11', 'ftime': '2019-09-28 20:09:11', 'context': '[上海市]快件到达 【上海浦江集散中心】', 'location': '上海市'}, {'time': '2019-09-28 19:09:04', 'ftime': '2019-09-28 19:09:04', 'context': '[上海市]快件在【上海浦东高东营业点】已装车,准备发往 【上海浦江集散中心】', 'location': '上海市'}, {'time': '2019-09-28 14:48:48', 'ftime': '2019-09-28 14:48:48', 'context': '[上海市]顺丰速运 已收取快件', 'location': '上海市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 15:57:46', 'ftime': '2019-09-29 15:57:46', 'context': '【青岛转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 21:42:49', 'ftime': '2019-09-28 21:42:49', 'context': '【上海转运中心】 已发出 下一站 【青岛转运中心】', 'location': ''}, {'time': '2019-09-28 21:37:36', 'ftime': '2019-09-28 21:37:36', 'context': '【上海转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 06:59:16', 'ftime': '2019-09-28 06:59:16', 'context': '【上海市青浦区3号仓库】 已发出 下一站 【上海转运中心】', 'location': ''}, {'time': '2019-09-28 06:54:31', 'ftime': '2019-09-28 06:54:31', 'context': '【上海市青浦区3号仓库公司】 已打包', 'location': ''}, {'time': '2019-09-28 04:39:55', 'ftime': '2019-09-28 04:39:55', 'context': '【上海市青浦区3号仓库公司】 已收件 取件人: 尹伟利 (13123292917)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.072004</v>
+        <v>0.07553600000000001</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.009920999999999999</v>
+        <v>0.009656</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-08 10:28:23', 'context': '查无结果', 'ftime': '2019-09-08 10:28:23'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 16:10:52', 'context': '查无结果', 'ftime': '2019-09-29 16:10:52'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.06655800000000001</v>
+        <v>0.06946099999999999</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.011972</v>
+        <v>0.010029</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:39:06', 'ftime': '2019-09-29 09:39:06', 'context': '配送员开始配送，请您准备收货，配送员，周云伟，手机号，17398224446', 'location': ''}, {'time': '2019-09-29 07:53:17', 'ftime': '2019-09-29 07:53:17', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-29 07:53:16', 'ftime': '2019-09-29 07:53:16', 'context': '货物已到达【荆州洪湖营业部】', 'location': ''}, {'time': '2019-09-28 23:10:19', 'ftime': '2019-09-28 23:10:19', 'context': '货物已完成分拣，离开【武汉亚一分拣中心】', 'location': ''}, {'time': '2019-09-28 22:11:15', 'ftime': '2019-09-28 22:11:15', 'context': '货物已到达【武汉亚一分拣中心】', 'location': ''}, {'time': '2019-09-28 00:46:52', 'ftime': '2019-09-28 00:46:52', 'context': '货物已完成分拣，离开【北京通州分拣中心】', 'location': ''}, {'time': '2019-09-28 00:45:58', 'ftime': '2019-09-28 00:45:58', 'context': '货物已到达【北京通州分拣中心】', 'location': ''}, {'time': '2019-09-27 22:53:42', 'ftime': '2019-09-27 22:53:42', 'context': '货物已完成分拣，离开【北京顺义分拣中心】', 'location': ''}, {'time': '2019-09-27 22:53:39', 'ftime': '2019-09-27 22:53:39', 'context': '尊敬的客户您好，受重大活动影响，预计到货会有延迟，我们正在全力为您服务，敬请谅解;', 'location': ''}, {'time': '2019-09-27 15:00:44', 'ftime': '2019-09-27 15:00:44', 'context': '受尊敬的客户您好，受重大活动影响，预计到货会有延迟，我们正在全力为您服务，敬请谅解;', 'location': ''}, {'time': '2019-09-27 15:00:41', 'ftime': '2019-09-27 15:00:41', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 15:00:41', 'ftime': '2019-09-27 15:00:41', 'context': '配送员刘宝同已经揽收完成', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 16:10:52', 'context': '查无结果', 'ftime': '2019-09-24 16:10:52'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.071049</v>
+        <v>0.06830799999999999</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009679999999999999</v>
+        <v>0.008584</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-08-13 18:35:59', 'ftime': '2018-08-13 18:35:59', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-08-13 18:35:15', 'ftime': '2018-08-13 18:35:15', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-08-13 19:00:00', 'location': None}, {'time': '2018-08-13 16:15:35', 'ftime': '2018-08-13 16:15:35', 'context': ' 配送员：张志远已出发，手机号：18502588183或85288016，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-08-13 14:05:01', 'ftime': '2018-08-13 14:05:01', 'context': ' 取件任务分配给常州长虹站', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 13:21:21', 'ftime': '2019-09-29 13:21:21', 'context': '已签收,签收人是（本人签收）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员孟杉杉(18862984028,0513-85893700)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-29 08:11:16', 'ftime': '2019-09-29 08:11:16', 'context': '江苏南通公司-孟杉杉(18862984028,0513-85893700)-派件中', 'location': ''}, {'time': '2019-09-29 07:49:50', 'ftime': '2019-09-29 07:49:50', 'context': '已到达-江苏南通公司', 'location': ''}, {'time': '2019-09-29 04:24:44', 'ftime': '2019-09-29 04:24:44', 'context': '江苏南通转运中心-已发往-江苏南通公司', 'location': ''}, {'time': '2019-09-29 04:21:46', 'ftime': '2019-09-29 04:21:46', 'context': '已到达-江苏南通转运中心', 'location': ''}, {'time': '2019-09-29 04:07:23', 'ftime': '2019-09-29 04:07:23', 'context': '已到达-江苏南通转运中心', 'location': ''}, {'time': '2019-09-28 21:10:11', 'ftime': '2019-09-28 21:10:11', 'context': '上海中转部-已发往-江苏南通转运中心', 'location': ''}, {'time': '2019-09-28 21:10:11', 'ftime': '2019-09-28 21:10:11', 'context': '上海中转部-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 20:50:40', 'ftime': '2019-09-28 20:50:40', 'context': '已到达-上海中转部', 'location': ''}, {'time': '2019-09-28 19:04:53', 'ftime': '2019-09-28 19:04:53', 'context': '江苏太仓公司-已发往-上海中转部', 'location': ''}, {'time': '2019-09-28 19:04:53', 'ftime': '2019-09-28 19:04:53', 'context': '江苏太仓公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 19:03:19', 'ftime': '2019-09-28 19:03:19', 'context': '江苏太仓公司-新塘13776174105(13776174105)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.074143</v>
+        <v>0.074199</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.009431</v>
+        <v>0.010127</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'F10', 'com': 'zhongtong', 'status': '200', 'state': '2', 'data': [{'time': '2019-09-27 18:17:54', 'ftime': '2019-09-27 18:17:54', 'context': '[山西运城公司红旗东街云湖湾便民寄存点分部]快件异常；备注：客户拒收', 'location': '山西运城公司红旗东街云湖湾便民寄存点分部'}, {'time': '2019-09-27 15:20:40', 'ftime': '2019-09-27 15:20:40', 'context': '[山西运城公司红旗东街云湖湾便民寄存点分部]进行派件扫描；派送业务员：王全；联系电话：17734935300', 'location': '山西运城公司红旗东街云湖湾便民寄存点分部'}, {'time': '2019-09-27 12:21:20', 'ftime': '2019-09-27 12:21:20', 'context': '[山西运城公司]进行快件扫描，发往：山西运城公司东城分部', 'location': '山西运城公司'}, {'time': '2019-09-27 05:05:39', 'ftime': '2019-09-27 05:05:39', 'context': '[河南郑州分拨中心]从站点发出，本次转运目的地：山西运城公司', 'location': '河南郑州分拨中心'}, {'time': '2019-09-27 05:01:53', 'ftime': '2019-09-27 05:01:53', 'context': '[河南郑州分拨中心]在分拨中心进行卸车扫描', 'location': '河南郑州分拨中心'}, {'time': '2019-09-25 22:30:10', 'ftime': '2019-09-25 22:30:10', 'context': '[广东深圳公司]进行装车扫描，发往：河南郑州分拨中心', 'location': '广东深圳公司'}, {'time': '2019-09-25 22:28:17', 'ftime': '2019-09-25 22:28:17', 'context': '[广东深圳公司]进行揽件扫描', 'location': '广东深圳公司'}, {'time': '2019-09-25 22:23:10', 'ftime': '2019-09-25 22:23:10', 'context': '[广东深圳公司]在分拨中心进行称重扫描', 'location': '广东深圳公司'}, {'time': '2019-09-25 06:17:20', 'ftime': '2019-09-25 06:17:20', 'context': '[广东深圳公司市场开发部分部]进行下级地点扫描，发往：山西运城公司', 'location': '广东深圳公司市场开发部分部'}, {'time': '2019-09-25 03:51:13', 'ftime': '2019-09-25 03:51:13', 'context': '[广东深圳公司市场开发部分部]进行揽件扫描', 'location': '广东深圳公司市场开发部分部'}, {'time': '2019-09-24 20:20:13', 'ftime': '2019-09-24 20:20:13', 'context': '[广东深圳公司骏达当纳利-KH分部]进行揽件扫描', 'location': '广东深圳公司骏达当纳利-KH分部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-01 16:10:53', 'context': '查无结果', 'ftime': '2019-09-01 16:10:53'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.072327</v>
+        <v>0.06363199999999999</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.009939</v>
+        <v>0.009185</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 14:57:26', 'ftime': '2019-09-28 14:57:26', 'context': '客户签收人: 朱师傅代收18607127446 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：15307197822，投诉电话：15307197822', 'location': ''}, {'time': '2019-09-28 08:55:33', 'ftime': '2019-09-28 08:55:33', 'context': '【湖北省武汉市武昌区徐东铁四院分部公司】 派件中 派件人: 胡军 电话 15307197822 如有疑问，请联系：15307197822', 'location': ''}, {'time': '2019-09-28 06:17:42', 'ftime': '2019-09-28 06:17:42', 'context': '【湖北省武汉市武昌区徐东公司】 已收入', 'location': ''}, {'time': '2019-09-27 20:23:06', 'ftime': '2019-09-27 20:23:06', 'context': '【武昌转运中心】 已发出 下一站 【湖北省武汉市武昌区徐东】', 'location': ''}, {'time': '2019-09-27 19:30:55', 'ftime': '2019-09-27 19:30:55', 'context': '【武昌转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 23:30:17', 'ftime': '2019-09-26 23:30:17', 'context': '【泉州转运中心】 已发出 下一站 【武昌转运中心】', 'location': ''}, {'time': '2019-09-26 23:28:02', 'ftime': '2019-09-26 23:28:02', 'context': '【泉州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 21:54:07', 'ftime': '2019-09-26 21:54:07', 'context': '【福建省泉州市晋江市桥南】 已发出 下一站 【泉州转运中心】', 'location': ''}, {'time': '2019-09-26 21:54:01', 'ftime': '2019-09-26 21:54:01', 'context': '【福建省泉州市晋江市桥南公司】 已收件 取件人: 王文发 (13959978147)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-26 17:48:15', 'ftime': '2019-07-26 17:48:15', 'context': '已签收，签收人类型：本人', 'location': None}, {'time': '2019-07-26 15:40:24', 'ftime': '2019-07-26 15:40:24', 'context': '派送中', 'location': None}, {'time': '2019-07-26 10:04:12', 'ftime': '2019-07-26 10:04:12', 'context': '预派送', 'location': None}, {'time': '2019-07-26 10:02:27', 'ftime': '2019-07-26 10:02:27', 'context': '货物已到达保定清苑县温仁镇营业部', 'location': None}, {'time': '2019-07-26 09:41:20', 'ftime': '2019-07-26 09:41:20', 'context': '运输中，离开【保定清苑县东吕吊具市场快递分部】，下一站【保定清苑县温仁镇营业部】', 'location': None}, {'time': '2019-07-26 08:39:12', 'ftime': '2019-07-26 08:39:12', 'context': '预派送', 'location': None}, {'time': '2019-07-26 07:22:29', 'ftime': '2019-07-26 07:22:29', 'context': '货物已到达保定清苑县东吕吊具市场快递分部', 'location': None}, {'time': '2019-07-26 05:51:40', 'ftime': '2019-07-26 05:51:40', 'context': '运输中，离开【保定转运场】，下一站【保定清苑县东吕吊具市场快递分部】', 'location': None}, {'time': '2019-07-26 01:03:02', 'ftime': '2019-07-26 01:03:02', 'context': '货物已到达保定转运场', 'location': None}, {'time': '2019-07-25 09:57:11', 'ftime': '2019-07-25 09:57:11', 'context': '运输中，离开【南通转运中心】，下一站【保定转运场】', 'location': None}, {'time': '2019-07-25 09:51:55', 'ftime': '2019-07-25 09:51:55', 'context': '运输中，离开【南通转运中心】，下一站【保定转运场】', 'location': None}, {'time': '2019-07-24 20:14:36', 'ftime': '2019-07-24 20:14:36', 'context': '货物已到达南通转运中心', 'location': None}, {'time': '2019-07-24 19:08:05', 'ftime': '2019-07-24 19:08:05', 'context': '运输中，离开【南通如东县马塘镇营业部】，下一站【南通转运中心】', 'location': None}, {'time': '2019-07-24 17:04:01', 'ftime': '2019-07-24 17:04:01', 'context': '您的订单已被收件员揽收,【南通如东县马塘镇营业部】库存中', 'location': None}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.07075099999999999</v>
+        <v>0.077542</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010208</v>
+        <v>0.00894</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (3).xlsx
+++ b/data_excel/接口测试用例_ (3).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -40,34 +40,6 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -127,10 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,6 +110,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -486,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -501,8 +487,9 @@
     <col width="22.5" customWidth="1" style="2" min="5" max="5"/>
     <col width="32.25" customWidth="1" style="2" min="6" max="6"/>
     <col width="19.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="28.75" customWidth="1" style="2" min="8" max="8"/>
-    <col width="14.375" customWidth="1" style="4" min="9" max="11"/>
+    <col width="11.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="28.75" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.375" customWidth="1" style="4" min="10" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="2">
@@ -543,20 +530,25 @@
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
+          <t>用例级别</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
           <t>响应报文</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>响应时间</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>状态码</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -608,18 +600,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 15:34:44', 'ftime': '2019-09-29 15:34:44', 'context': '[茂名市]邮政广东省信宜市白石】安排投递,投递员:刘云飞,电话:17376888427', 'location': None}, {'time': '2019-09-29 14:37:05', 'ftime': '2019-09-29 14:37:05', 'context': '[茂名市]到达【邮政广东省信宜市白石】', 'location': None}, {'time': '2019-09-29 12:01:57', 'ftime': '2019-09-29 12:01:57', 'context': '[茂名市]离开【信宜邮运】,下一站【邮政广东省信宜市白石】', 'location': None}, {'time': '2019-09-28 10:57:59', 'ftime': '2019-09-28 10:57:59', 'context': '[茂名市]到达【茂名转运】', 'location': None}, {'time': '2019-09-28 05:31:38', 'ftime': '2019-09-28 05:31:38', 'context': '[广州市]离开【广州机北】,下一站【茂名转运】（经转）', 'location': None}, {'time': '2019-09-27 23:30:17', 'ftime': '2019-09-27 23:30:17', 'context': '[广州市]到达【广东航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-09-27 19:29:51', 'ftime': '2019-09-27 19:29:51', 'context': '[南宁市]离开【南宁航空邮件交换站】,下一站【广东航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-09-27 01:44:04', 'ftime': '2019-09-27 01:44:04', 'context': '[南宁市]到达【南宁中心】（经转）', 'location': None}, {'time': '2019-09-26 22:32:56', 'ftime': '2019-09-26 22:32:56', 'context': '离开【来宾市邮件处理中心】,下一站【南宁中心】', 'location': None}, {'time': '2019-09-26 16:53:27', 'ftime': '2019-09-26 16:53:27', 'context': '[来宾市]到达【忻城县处理中心（营业部）】', 'location': None}, {'time': '2019-09-26 16:52:37', 'ftime': '2019-09-26 16:52:37', 'context': '[来宾市]离开【邮政忻城县翠屏西路】,下一站【忻城处理】', 'location': None}, {'time': '2019-09-26 14:00:03', 'ftime': '2019-09-26 14:00:03', 'context': '[来宾市]【邮政忻城县翠屏西路】已收件,揽投员:蒙金贵,电话:13597091092', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.073548</v>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-05 19:47:34', 'ftime': '2019-10-05 19:47:34', 'context': '【江门市】 快件离开 【江门新蓬江】 已发往 【中山中心】', 'location': None}, {'time': '2019-09-28 19:09:26', 'ftime': '2019-09-28 19:09:26', 'context': '【中山市】 快件已在 【中山南头】 签收, 签收人: 门卫或家人, 如有疑问请电联:17666364782 / 0760-22502000, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': None}, {'time': '2019-09-28 16:28:27', 'ftime': '2019-09-28 16:28:27', 'context': '【中山市】 【中山南头】 的大雁梁建辉（17666364782） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-09-28 13:34:43', 'ftime': '2019-09-28 13:34:43', 'context': '【中山市】 快件已经到达 【中山南头】', 'location': None}, {'time': '2019-09-28 10:08:07', 'ftime': '2019-09-28 10:08:07', 'context': '【中山市】 快件离开 【中山中心】 已发往 【中山南头】', 'location': None}, {'time': '2019-09-28 10:00:07', 'ftime': '2019-09-28 10:00:07', 'context': '【中山市】 快件已经到达 【中山中心】', 'location': None}, {'time': '2019-09-26 23:08:47', 'ftime': '2019-09-26 23:08:47', 'context': '【西安市】 快件离开 【西安中转】 已发往 【中山中心】', 'location': None}, {'time': '2019-09-26 22:22:25', 'ftime': '2019-09-26 22:22:25', 'context': '【西安市】 快件已经到达 【西安中转】', 'location': None}, {'time': '2019-09-26 08:26:11', 'ftime': '2019-09-26 08:26:11', 'context': '【汉中市】 快件离开 【汉中城固】 已发往 【西安中转】', 'location': None}, {'time': '2019-09-25 19:39:24', 'ftime': '2019-09-25 19:39:24', 'context': '【汉中市】 【汉中城固】（0916-8896136） 的 李旭（17791089953） 已揽收', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J2" s="3" t="n">
+        <v>0.087538</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -669,22 +666,15 @@
       <c r="G3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.011457</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" ht="39.95" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -723,18 +713,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-08-05 19:38:17', 'ftime': '2019-08-05 19:38:17', 'context': '[南宁市]邮件投递到：云表邮政投递自提点,投递员:甘英姿,电话:18074713315', 'location': None}, {'time': '2019-08-05 10:18:44', 'ftime': '2019-08-05 10:18:44', 'context': '[南宁市]邮政横县云表邮电】安排投递,投递员:甘英姿,电话:18074713315', 'location': None}, {'time': '2019-08-04 10:25:54', 'ftime': '2019-08-04 10:25:54', 'context': '[南宁市]离开【横县邮件处理中心】,下一站【邮政横县云表邮电】（经转）', 'location': None}, {'time': '2019-08-03 10:53:30', 'ftime': '2019-08-03 10:53:30', 'context': '[南宁市]到达【南宁航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-03 09:17:46', 'ftime': '2019-08-03 09:17:46', 'context': '[南昌市]离开【南昌航空邮件处理中心】,下一站【南宁航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-03 07:57:25', 'ftime': '2019-08-03 07:57:25', 'context': '[南昌市]到达【南昌航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-03 06:49:33', 'ftime': '2019-08-03 06:49:33', 'context': '[南京市]离开【南航集散】,下一站【南昌航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-03 02:43:26', 'ftime': '2019-08-03 02:43:26', 'context': '[南京市]到达【南航集散】（经转）', 'location': None}, {'time': '2019-08-03 00:22:07', 'ftime': '2019-08-03 00:22:07', 'context': '[广州市]离开【广东航空邮件处理中心】,下一站【南航集散】（经转）', 'location': None}, {'time': '2019-08-02 19:45:21', 'ftime': '2019-08-02 19:45:21', 'context': '[广州市]到达【广东航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-02 16:26:45', 'ftime': '2019-08-02 16:26:45', 'context': '离开【珠海市邮件处理中心】,下一站【广东航空邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-02 12:25:57', 'ftime': '2019-08-02 12:25:57', 'context': '到达【珠海市邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-02 12:11:45', 'ftime': '2019-08-02 12:11:45', 'context': '离开【珠海市福溪揽投部】,下一站【珠海速处】', 'location': None}, {'time': '2019-08-02 11:25:47', 'ftime': '2019-08-02 11:25:47', 'context': '【珠海市福溪揽投部】已收件,揽投员:方小兰,电话:18675629593', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.071808</v>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 11:30:46', 'ftime': '2019-09-29 11:30:46', 'context': '在 自贡市 已签收,他人代收：韵达快递,投递员:黄亚勇,电话:13309000788', 'location': None}, {'time': '2019-09-29 08:43:07', 'ftime': '2019-09-29 08:43:07', 'context': '【自贡寄递事业部檀木林邮政营业部】安排投递,投递员:黄亚勇,电话:13309000788', 'location': None}, {'time': '2019-09-29 07:14:58', 'ftime': '2019-09-29 07:14:58', 'context': '到达【自贡寄递事业部檀木林邮政营业部】 自贡市', 'location': None}, {'time': '2019-09-29 06:26:28', 'ftime': '2019-09-29 06:26:28', 'context': '离开【自贡中心】,下一站【自贡寄递事业部檀木林邮政营业部】 自贡市', 'location': None}, {'time': '2019-09-28 22:18:11', 'ftime': '2019-09-28 22:18:11', 'context': '到达【自贡中心】 自贡市', 'location': None}, {'time': '2019-09-28 19:08:28', 'ftime': '2019-09-28 19:08:28', 'context': '离开【成都中心】,下一站【自贡中心】（经转） 成都市', 'location': None}, {'time': '2019-09-28 13:54:28', 'ftime': '2019-09-28 13:54:28', 'context': '到达【成都中心】（经转） 成都市', 'location': None}, {'time': '2019-09-27 05:06:07', 'ftime': '2019-09-27 05:06:07', 'context': '离开【济南中心】,下一站【成都中心】（经转） 济南市', 'location': None}, {'time': '2019-09-26 23:18:32', 'ftime': '2019-09-26 23:18:32', 'context': '到达【济南中心】（经转） 济南市', 'location': None}, {'time': '2019-09-26 20:04:54', 'ftime': '2019-09-26 20:04:54', 'context': '离开【滨州处理中心】,下一站【济南中心】 滨州市', 'location': None}, {'time': '2019-09-26 17:46:31', 'ftime': '2019-09-26 17:46:31', 'context': '到达【滨州处理中心】 滨州市', 'location': None}, {'time': '2019-09-26 17:32:02', 'ftime': '2019-09-26 17:32:02', 'context': '离开【滨州大宗中心】,下一站【滨邮处理】 滨州市', 'location': None}, {'time': '2019-09-26 17:18:11', 'ftime': '2019-09-26 17:18:11', 'context': '滨州市 【滨州大宗中心】已收件,揽投员:赵辉,电话:18554358038', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J4" s="3" t="n">
+        <v>0.085732</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -775,22 +770,15 @@
       <c r="G5" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.037839</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" ht="39.95" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -829,18 +817,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 16:10:52', 'context': '查无结果', 'ftime': '2019-09-16 16:10:52'}]}</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.068687</v>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 11:03:16', 'ftime': '2019-10-08 11:03:16', 'context': '[四川成都高新区软件园公司]快件已被 烟草速递易代收 代签收如有问题请联系陈勇【13679069291】。', 'location': '四川成都高新区软件园公司'}, {'time': '2019-10-08 08:24:40', 'ftime': '2019-10-08 08:24:40', 'context': '[四川成都高新区软件园公司]进行派件扫描；派送业务员：陈勇；联系电话：13679069291', 'location': '四川成都高新区软件园公司'}, {'time': '2019-09-30 22:30:00', 'ftime': '2019-09-30 22:30:00', 'context': '[四川成都分拨中心]从站点发出，本次转运目的地：四川成都高新区软件园公司', 'location': '四川成都分拨中心'}, {'time': '2019-09-30 22:15:51', 'ftime': '2019-09-30 22:15:51', 'context': '[四川成都分拨中心]在分拨中心进行称重扫描', 'location': '四川成都分拨中心'}, {'time': '2019-09-30 18:33:30', 'ftime': '2019-09-30 18:33:30', 'context': '[四川成都市高新区天府长城公司]进行揽件扫描', 'location': '四川成都市高新区天府长城公司'}]}</t>
+        </is>
       </c>
       <c r="J6" s="3" t="n">
+        <v>0.07294100000000001</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -881,22 +874,15 @@
       <c r="G7" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.009209</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8" ht="39.95" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -935,18 +921,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 15:57:46', 'ftime': '2019-09-29 15:57:46', 'context': '【青岛转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 21:42:49', 'ftime': '2019-09-28 21:42:49', 'context': '【上海转运中心】 已发出 下一站 【青岛转运中心】', 'location': ''}, {'time': '2019-09-28 21:37:36', 'ftime': '2019-09-28 21:37:36', 'context': '【上海转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 06:59:16', 'ftime': '2019-09-28 06:59:16', 'context': '【上海市青浦区3号仓库】 已发出 下一站 【上海转运中心】', 'location': ''}, {'time': '2019-09-28 06:54:31', 'ftime': '2019-09-28 06:54:31', 'context': '【上海市青浦区3号仓库公司】 已打包', 'location': ''}, {'time': '2019-09-28 04:39:55', 'ftime': '2019-09-28 04:39:55', 'context': '【上海市青浦区3号仓库公司】 已收件 取件人: 尹伟利 (13123292917)', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.07553600000000001</v>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 02:14:00', 'ftime': '2019-10-07 02:14:00', 'context': '[哈尔滨市]快件已发车', 'location': '哈尔滨市'}, {'time': '2019-10-06 18:38:00', 'ftime': '2019-10-06 18:38:00', 'context': '[哈尔滨市]快件在【哈尔滨龙运临时集散中心】已装车,准备发往 【东莞沙田集散中心】', 'location': '哈尔滨市'}, {'time': '2019-10-06 17:06:00', 'ftime': '2019-10-06 17:06:00', 'context': '[哈尔滨市]快件到达 【哈尔滨龙运临时集散中心】', 'location': '哈尔滨市'}, {'time': '2019-10-06 16:44:00', 'ftime': '2019-10-06 16:44:00', 'context': '快件在【哈尔滨市平房区联盟大街营业点】已装车,准备发往 【哈尔滨龙运临时集散中心】', 'location': '哈尔滨市'}, {'time': '2019-10-06 16:44:00', 'ftime': '2019-10-06 16:44:00', 'context': '[哈尔滨市]快件已发车', 'location': '哈尔滨市'}, {'time': '2019-10-06 16:03:00', 'ftime': '2019-10-06 16:03:00', 'context': '[哈尔滨市]顺丰速运 已收取快件', 'location': '哈尔滨市'}, {'time': '2019-10-06 15:13:00', 'ftime': '2019-10-06 15:13:00', 'context': '[哈尔滨市]顺丰速运 已收取快件', 'location': '哈尔滨市'}]}</t>
+        </is>
       </c>
       <c r="J8" s="3" t="n">
+        <v>0.071197</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -987,22 +978,15 @@
       <c r="G9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.009656</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10" ht="39.95" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -1041,18 +1025,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 16:10:52', 'context': '查无结果', 'ftime': '2019-09-29 16:10:52'}]}</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.06946099999999999</v>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-07 18:49:20', 'ftime': '2019-10-07 18:49:20', 'context': '客户签收人: 已签收，签收人凭取货码签收。 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：17601320167，投诉电话：02168380013', 'location': None}, {'time': '2019-10-07 16:14:07', 'ftime': '2019-10-07 16:14:07', 'context': '快件已由新川小区8号楼旁丰巢智能柜丰巢柜代收，取件码已发送，请及时取件。', 'location': None}, {'time': '2019-10-07 15:01:20', 'ftime': '2019-10-07 15:01:20', 'context': '【上海市浦东机场公司】 派件中 派件人: 赵明 电话 18019418908 如有疑问，请联系：02168380013', 'location': None}, {'time': '2019-10-07 14:59:00', 'ftime': '2019-10-07 14:59:00', 'context': '【上海市浦东机场公司】 已收入', 'location': None}, {'time': '2019-10-07 11:47:07', 'ftime': '2019-10-07 11:47:07', 'context': '【浦东转运中心】 已发出 下一站 【上海市浦东机场】', 'location': None}, {'time': '2019-10-07 11:32:37', 'ftime': '2019-10-07 11:32:37', 'context': '【浦东转运中心公司】 已收入', 'location': None}, {'time': '2019-10-07 09:18:24', 'ftime': '2019-10-07 09:18:24', 'context': '【上海转运中心】 已发出 下一站 【浦东转运中心】', 'location': None}, {'time': '2019-10-07 09:17:10', 'ftime': '2019-10-07 09:17:10', 'context': '【上海转运中心公司】 已收入', 'location': None}, {'time': '2019-10-05 21:37:56', 'ftime': '2019-10-05 21:37:56', 'context': '【佛山转运中心】 已发出 下一站 【上海转运中心】', 'location': None}, {'time': '2019-10-05 21:05:25', 'ftime': '2019-10-05 21:05:25', 'context': '【佛山转运中心公司】 已收入', 'location': None}, {'time': '2019-10-05 19:03:26', 'ftime': '2019-10-05 19:03:26', 'context': '【广东省佛山市顺德区龙江公司】 已收件 取件人: 梁耀鸿 (13719800874)', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J10" s="3" t="n">
+        <v>0.07702199999999999</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1093,22 +1082,15 @@
       <c r="G11" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.010029</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" ht="39.95" customHeight="1" s="2">
       <c r="A12" s="3" t="n">
@@ -1156,18 +1138,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 16:10:52', 'context': '查无结果', 'ftime': '2019-09-24 16:10:52'}]}</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.06830799999999999</v>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 15:47:12', 'ftime': '2019-10-08 15:47:12', 'context': '[广东广州白云区人和公司]快件已被 已签收 签收', 'location': '广东广州白云区人和公司'}, {'time': '2019-10-08 14:09:08', 'ftime': '2019-10-08 14:09:08', 'context': '[广东广州白云区人和公司]进行派件扫描；派送业务员：曹嘉文；联系电话：18565477101', 'location': '广东广州白云区人和公司'}, {'time': '2019-10-08 13:00:32', 'ftime': '2019-10-08 13:00:32', 'context': '[广东广州白云区人和公司]进行揽件扫描', 'location': '广东广州白云区人和公司'}, {'time': '2019-10-08 05:13:19', 'ftime': '2019-10-08 05:13:19', 'context': '[广东广州分拨中心]从站点发出，本次转运目的地：广东广州白云区人和公司', 'location': '广东广州分拨中心'}, {'time': '2019-10-08 05:05:27', 'ftime': '2019-10-08 05:05:27', 'context': '[广东广州分拨中心]在分拨中心进行卸车扫描', 'location': '广东广州分拨中心'}, {'time': '2019-10-08 01:38:43', 'ftime': '2019-10-08 01:38:43', 'context': '[广东中山公司]进行装车扫描，发往：广东广州分拨中心', 'location': '广东中山公司'}, {'time': '2019-10-08 01:36:50', 'ftime': '2019-10-08 01:36:50', 'context': '[广东中山公司]进行下级地点扫描，发往：广东广州网点包', 'location': '广东中山公司'}, {'time': '2019-10-08 01:27:48', 'ftime': '2019-10-08 01:27:48', 'context': '[广东中山公司]进行揽件扫描', 'location': '广东中山公司'}, {'time': '2019-10-07 18:28:40', 'ftime': '2019-10-07 18:28:40', 'context': '[广东中山公司大涌分部]进行揽件扫描', 'location': '广东中山公司大涌分部'}]}</t>
+        </is>
       </c>
       <c r="J12" s="3" t="n">
+        <v>0.07643800000000001</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1217,22 +1204,15 @@
       <c r="G13" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.008584</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row r="14" ht="39.95" customHeight="1" s="2">
       <c r="A14" s="3" t="n">
@@ -1280,18 +1260,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 13:21:21', 'ftime': '2019-09-29 13:21:21', 'context': '已签收,签收人是（本人签收）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员孟杉杉(18862984028,0513-85893700)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-29 08:11:16', 'ftime': '2019-09-29 08:11:16', 'context': '江苏南通公司-孟杉杉(18862984028,0513-85893700)-派件中', 'location': ''}, {'time': '2019-09-29 07:49:50', 'ftime': '2019-09-29 07:49:50', 'context': '已到达-江苏南通公司', 'location': ''}, {'time': '2019-09-29 04:24:44', 'ftime': '2019-09-29 04:24:44', 'context': '江苏南通转运中心-已发往-江苏南通公司', 'location': ''}, {'time': '2019-09-29 04:21:46', 'ftime': '2019-09-29 04:21:46', 'context': '已到达-江苏南通转运中心', 'location': ''}, {'time': '2019-09-29 04:07:23', 'ftime': '2019-09-29 04:07:23', 'context': '已到达-江苏南通转运中心', 'location': ''}, {'time': '2019-09-28 21:10:11', 'ftime': '2019-09-28 21:10:11', 'context': '上海中转部-已发往-江苏南通转运中心', 'location': ''}, {'time': '2019-09-28 21:10:11', 'ftime': '2019-09-28 21:10:11', 'context': '上海中转部-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 20:50:40', 'ftime': '2019-09-28 20:50:40', 'context': '已到达-上海中转部', 'location': ''}, {'time': '2019-09-28 19:04:53', 'ftime': '2019-09-28 19:04:53', 'context': '江苏太仓公司-已发往-上海中转部', 'location': ''}, {'time': '2019-09-28 19:04:53', 'ftime': '2019-09-28 19:04:53', 'context': '江苏太仓公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 19:03:19', 'ftime': '2019-09-28 19:03:19', 'context': '江苏太仓公司-新塘13776174105(13776174105)-已收件', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.074199</v>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 11:22:32', 'ftime': '2019-10-08 11:22:32', 'context': '您的订单已被收件员揽收,【黑河爱辉区兴华街营业点】库存中', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J14" s="3" t="n">
+        <v>0.073196</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1332,22 +1317,15 @@
       <c r="G15" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0.010127</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row r="16" ht="39.95" customHeight="1" s="2">
       <c r="A16" s="3" t="n">
@@ -1386,18 +1364,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-01 16:10:53', 'context': '查无结果', 'ftime': '2019-09-01 16:10:53'}]}</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0.06363199999999999</v>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 15:17:00', 'ftime': '2019-10-08 15:17:00', 'context': '快件到达 【长春市宽城区汉口大街速运营业点】', 'location': '长春市'}, {'time': '2019-10-08 15:17:00', 'ftime': '2019-10-08 15:17:00', 'context': '[长春市]快件交给刘玉龙，正在派送途中（联系电话：15584358121）', 'location': '长春市'}, {'time': '2019-10-08 14:27:00', 'ftime': '2019-10-08 14:27:00', 'context': '[长春市]快件已发车', 'location': '长春市'}, {'time': '2019-10-08 14:26:00', 'ftime': '2019-10-08 14:26:00', 'context': '快件在【长春长青集散中心】已装车,准备发往 【长春市宽城区汉口大街速运营业点】', 'location': '长春市'}, {'time': '2019-10-08 11:18:00', 'ftime': '2019-10-08 11:18:00', 'context': '[长春市]快件到达 【长春长青集散中心】', 'location': '长春市'}, {'time': '2019-10-08 09:56:00', 'ftime': '2019-10-08 09:56:00', 'context': '[长春市]快件到达【长春】，准备发往【长春长青集散中心】', 'location': '长春市'}, {'time': '2019-10-08 07:15:00', 'ftime': '2019-10-08 07:15:00', 'context': '[郑州市]快件在【郑州飞往长春航班上】已起飞', 'location': '郑州市'}, {'time': '2019-10-07 23:13:00', 'ftime': '2019-10-07 23:13:00', 'context': '[郑州市]快件在【郑州航空集散中心】已装车,准备发往 【长春长青集散中心】', 'location': '郑州市'}, {'time': '2019-10-07 20:56:00', 'ftime': '2019-10-07 20:56:00', 'context': '[郑州市]快件到达 【郑州航空集散中心】', 'location': '郑州市'}, {'time': '2019-10-07 15:53:00', 'ftime': '2019-10-07 15:53:00', 'context': '[郑州市]快件已发车', 'location': '郑州市'}, {'time': '2019-10-07 15:52:00', 'ftime': '2019-10-07 15:52:00', 'context': '[郑州市]快件在【郑州港区中转场】已装车,准备发往 【郑州航空集散中心】', 'location': '郑州市'}, {'time': '2019-10-07 12:17:00', 'ftime': '2019-10-07 12:17:00', 'context': '[郑州市]快件到达 【郑州港区中转场】', 'location': '郑州市'}, {'time': '2019-10-07 10:59:00', 'ftime': '2019-10-07 10:59:00', 'context': '[郑州市]快件已发车', 'location': '郑州市'}, {'time': '2019-10-07 10:44:00', 'ftime': '2019-10-07 10:44:00', 'context': '[郑州市]快件在【郑州中原区龙鼎工业园营业点】已装车,准备发往 【郑州港区中转场】', 'location': '郑州市'}, {'time': '2019-10-07 10:35:00', 'ftime': '2019-10-07 10:35:00', 'context': '[郑州市]顺丰速运 已收取快件', 'location': '郑州市'}, {'time': '2019-10-07 08:33:00', 'ftime': '2019-10-07 08:33:00', 'context': '[郑州市]顺丰速运 已收取快件', 'location': '郑州市'}]}</t>
+        </is>
       </c>
       <c r="J16" s="3" t="n">
+        <v>0.076485</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1438,22 +1421,15 @@
       <c r="G17" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.009185</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" s="2">
       <c r="A18" s="3" t="n">
@@ -1501,18 +1477,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-26 17:48:15', 'ftime': '2019-07-26 17:48:15', 'context': '已签收，签收人类型：本人', 'location': None}, {'time': '2019-07-26 15:40:24', 'ftime': '2019-07-26 15:40:24', 'context': '派送中', 'location': None}, {'time': '2019-07-26 10:04:12', 'ftime': '2019-07-26 10:04:12', 'context': '预派送', 'location': None}, {'time': '2019-07-26 10:02:27', 'ftime': '2019-07-26 10:02:27', 'context': '货物已到达保定清苑县温仁镇营业部', 'location': None}, {'time': '2019-07-26 09:41:20', 'ftime': '2019-07-26 09:41:20', 'context': '运输中，离开【保定清苑县东吕吊具市场快递分部】，下一站【保定清苑县温仁镇营业部】', 'location': None}, {'time': '2019-07-26 08:39:12', 'ftime': '2019-07-26 08:39:12', 'context': '预派送', 'location': None}, {'time': '2019-07-26 07:22:29', 'ftime': '2019-07-26 07:22:29', 'context': '货物已到达保定清苑县东吕吊具市场快递分部', 'location': None}, {'time': '2019-07-26 05:51:40', 'ftime': '2019-07-26 05:51:40', 'context': '运输中，离开【保定转运场】，下一站【保定清苑县东吕吊具市场快递分部】', 'location': None}, {'time': '2019-07-26 01:03:02', 'ftime': '2019-07-26 01:03:02', 'context': '货物已到达保定转运场', 'location': None}, {'time': '2019-07-25 09:57:11', 'ftime': '2019-07-25 09:57:11', 'context': '运输中，离开【南通转运中心】，下一站【保定转运场】', 'location': None}, {'time': '2019-07-25 09:51:55', 'ftime': '2019-07-25 09:51:55', 'context': '运输中，离开【南通转运中心】，下一站【保定转运场】', 'location': None}, {'time': '2019-07-24 20:14:36', 'ftime': '2019-07-24 20:14:36', 'context': '货物已到达南通转运中心', 'location': None}, {'time': '2019-07-24 19:08:05', 'ftime': '2019-07-24 19:08:05', 'context': '运输中，离开【南通如东县马塘镇营业部】，下一站【南通转运中心】', 'location': None}, {'time': '2019-07-24 17:04:01', 'ftime': '2019-07-24 17:04:01', 'context': '您的订单已被收件员揽收,【南通如东县马塘镇营业部】库存中', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0.077542</v>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-08-24 13:05:06', 'ftime': '2019-08-24 13:05:06', 'context': '巴州【巴州办】进行签收', 'location': ''}, {'time': '2019-08-24 12:17:27', 'ftime': '2019-08-24 12:17:27', 'context': '已由巴州(巴州办)装在车牌号【新M15D22】正在派送,车序号【D996001190824001】.', 'location': ''}, {'time': '2019-08-24 12:14:25', 'ftime': '2019-08-24 12:14:25', 'context': '巴州(巴州办)将【747544392】装在【新M15D22】上,车序号【D996001190824001】,装车【9】件,类型【送货】,操作来源【四代系统】', 'location': ''}, {'time': '2019-08-23 16:50:31', 'ftime': '2019-08-23 16:50:31', 'context': '货物已到达巴州(巴州办),上一站乌鲁木齐(沙区办)', 'location': ''}, {'time': '2019-08-23 16:32:11', 'ftime': '2019-08-23 16:32:11', 'context': '货物已到达巴州(巴州办),上一站乌鲁木齐(沙区办)', 'location': ''}, {'time': '2019-08-21 19:51:11', 'ftime': '2019-08-21 19:51:11', 'context': '货物已到达巴州(巴州办),上一站乌鲁木齐(沙区办)', 'location': ''}, {'time': '2019-08-20 18:27:09', 'ftime': '2019-08-20 18:27:09', 'context': '已由乌鲁木齐(沙区办)装车正在发往巴州(巴州办),车牌号【皖F82242】,车序号【M991001190816001】', 'location': ''}, {'time': '2019-08-18 09:59:34', 'ftime': '2019-08-18 09:59:34', 'context': '乌鲁木齐(沙区办)将【747544392】装在发往巴州(巴州办)的【皖F82242】上,车序号【M991001190816001】,装车【9】件,类型【发货】,操作来源【四代系统】', 'location': ''}, {'time': '2019-08-18 09:55:13', 'ftime': '2019-08-18 09:55:13', 'context': '货物已到达乌鲁木齐(沙区办),上一站西安(六村堡办)', 'location': ''}, {'time': '2019-08-14 15:24:39', 'ftime': '2019-08-14 15:24:39', 'context': '货物已到达西安(六村堡办),上一站上海(青浦区徐泾镇办)', 'location': ''}, {'time': '2019-08-14 15:09:55', 'ftime': '2019-08-14 15:09:55', 'context': '已由西安(六村堡办)装车正在发往乌鲁木齐(沙区办),车牌号【陕AW7629】,车序号【L029001190814004】', 'location': ''}, {'time': '2019-08-14 12:11:47', 'ftime': '2019-08-14 12:11:47', 'context': '西安(六村堡办)将【747544392】装在发往乌鲁木齐(沙区办)的【陕AW7629】上,车序号【L029001190814004】,类型【发货】,操作来源【APP】', 'location': ''}, {'time': '2019-08-13 04:15:10', 'ftime': '2019-08-13 04:15:10', 'context': '已由上海(青浦区徐泾镇办)装车正在发往西安(六村堡办),车牌号【黑D44188】,车序号【L021001190810032】', 'location': ''}, {'time': '2019-08-11 00:41:41', 'ftime': '2019-08-11 00:41:41', 'context': '货物已到达上海(青浦区徐泾镇办),上一站合肥(合肥龙塘办)', 'location': ''}, {'time': '2019-08-10 18:18:55', 'ftime': '2019-08-10 18:18:55', 'context': '上海(青浦区徐泾镇办)将【747544392】装在发往西安(六村堡办)的【黑D44188】上,车序号【L021001190810032】,类型【发货】,操作来源【APP】', 'location': ''}, {'time': '2019-08-10 00:10:39', 'ftime': '2019-08-10 00:10:39', 'context': '合肥(合肥龙塘办)将【747544392】装在发往上海(青浦区徐泾镇办)的【沪DC8419】上,车序号【L551001190809001】,类型【发货】,操作来源【APP】', 'location': ''}, {'time': '2019-08-09 17:23:36', 'ftime': '2019-08-09 17:23:36', 'context': '货物已到达合肥(合肥龙塘办),上一站合肥(合肥合清溪路办)', 'location': ''}, {'time': '2019-08-09 17:03:14', 'ftime': '2019-08-09 17:03:14', 'context': '已由合肥(合肥合清溪路办)装车正在发往合肥(合肥龙塘办),车牌号【皖YN0001】,车序号【D551005190809004】', 'location': ''}, {'time': '2019-08-09 17:02:57', 'ftime': '2019-08-09 17:02:57', 'context': '合肥(合肥合清溪路办)将【747544392】装在发往合肥(合肥龙塘办)的【皖YN0001】上,车序号【D551005190809004】,装车【9】件,类型【发货】,操作来源【四代系统】', 'location': ''}, {'time': '2019-08-09 17:02:28', 'ftime': '2019-08-09 17:02:28', 'context': '合肥(合肥合清溪路办)将【747544392】装在【皖YN0001】车上,车序号【D551005190809003】,装车【9】件,类型【提货】,操作来源【四代系统】', 'location': ''}, {'time': '2019-08-09 11:30:46', 'ftime': '2019-08-09 11:30:46', 'context': '合肥(合肥合清溪路办)办理托运【747544392】', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J18" s="3" t="n">
+        <v>0.073064</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1562,26 +1543,32 @@
       <c r="G19" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.00894</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
     </row>
     <row r="20" ht="39.95" customHeight="1" s="2"/>
     <row r="21" ht="39.95" customHeight="1" s="2"/>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"K"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="H2:H19" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"K,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>

--- a/data_excel/接口测试用例_ (3).xlsx
+++ b/data_excel/接口测试用例_ (3).xlsx
@@ -607,11 +607,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-05 19:47:34', 'ftime': '2019-10-05 19:47:34', 'context': '【江门市】 快件离开 【江门新蓬江】 已发往 【中山中心】', 'location': None}, {'time': '2019-09-28 19:09:26', 'ftime': '2019-09-28 19:09:26', 'context': '【中山市】 快件已在 【中山南头】 签收, 签收人: 门卫或家人, 如有疑问请电联:17666364782 / 0760-22502000, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': None}, {'time': '2019-09-28 16:28:27', 'ftime': '2019-09-28 16:28:27', 'context': '【中山市】 【中山南头】 的大雁梁建辉（17666364782） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-09-28 13:34:43', 'ftime': '2019-09-28 13:34:43', 'context': '【中山市】 快件已经到达 【中山南头】', 'location': None}, {'time': '2019-09-28 10:08:07', 'ftime': '2019-09-28 10:08:07', 'context': '【中山市】 快件离开 【中山中心】 已发往 【中山南头】', 'location': None}, {'time': '2019-09-28 10:00:07', 'ftime': '2019-09-28 10:00:07', 'context': '【中山市】 快件已经到达 【中山中心】', 'location': None}, {'time': '2019-09-26 23:08:47', 'ftime': '2019-09-26 23:08:47', 'context': '【西安市】 快件离开 【西安中转】 已发往 【中山中心】', 'location': None}, {'time': '2019-09-26 22:22:25', 'ftime': '2019-09-26 22:22:25', 'context': '【西安市】 快件已经到达 【西安中转】', 'location': None}, {'time': '2019-09-26 08:26:11', 'ftime': '2019-09-26 08:26:11', 'context': '【汉中市】 快件离开 【汉中城固】 已发往 【西安中转】', 'location': None}, {'time': '2019-09-25 19:39:24', 'ftime': '2019-09-25 19:39:24', 'context': '【汉中市】 【汉中城固】（0916-8896136） 的 李旭（17791089953） 已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': 'false', 'condition': 'sorder', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 16:12:12', 'ftime': '2019-10-08 16:12:12', 'context': '已下单【该信息由快递100提供】', 'location': None}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.087538</v>
+        <v>0.077708</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -720,11 +720,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 11:30:46', 'ftime': '2019-09-29 11:30:46', 'context': '在 自贡市 已签收,他人代收：韵达快递,投递员:黄亚勇,电话:13309000788', 'location': None}, {'time': '2019-09-29 08:43:07', 'ftime': '2019-09-29 08:43:07', 'context': '【自贡寄递事业部檀木林邮政营业部】安排投递,投递员:黄亚勇,电话:13309000788', 'location': None}, {'time': '2019-09-29 07:14:58', 'ftime': '2019-09-29 07:14:58', 'context': '到达【自贡寄递事业部檀木林邮政营业部】 自贡市', 'location': None}, {'time': '2019-09-29 06:26:28', 'ftime': '2019-09-29 06:26:28', 'context': '离开【自贡中心】,下一站【自贡寄递事业部檀木林邮政营业部】 自贡市', 'location': None}, {'time': '2019-09-28 22:18:11', 'ftime': '2019-09-28 22:18:11', 'context': '到达【自贡中心】 自贡市', 'location': None}, {'time': '2019-09-28 19:08:28', 'ftime': '2019-09-28 19:08:28', 'context': '离开【成都中心】,下一站【自贡中心】（经转） 成都市', 'location': None}, {'time': '2019-09-28 13:54:28', 'ftime': '2019-09-28 13:54:28', 'context': '到达【成都中心】（经转） 成都市', 'location': None}, {'time': '2019-09-27 05:06:07', 'ftime': '2019-09-27 05:06:07', 'context': '离开【济南中心】,下一站【成都中心】（经转） 济南市', 'location': None}, {'time': '2019-09-26 23:18:32', 'ftime': '2019-09-26 23:18:32', 'context': '到达【济南中心】（经转） 济南市', 'location': None}, {'time': '2019-09-26 20:04:54', 'ftime': '2019-09-26 20:04:54', 'context': '离开【滨州处理中心】,下一站【济南中心】 滨州市', 'location': None}, {'time': '2019-09-26 17:46:31', 'ftime': '2019-09-26 17:46:31', 'context': '到达【滨州处理中心】 滨州市', 'location': None}, {'time': '2019-09-26 17:32:02', 'ftime': '2019-09-26 17:32:02', 'context': '离开【滨州大宗中心】,下一站【滨邮处理】 滨州市', 'location': None}, {'time': '2019-09-26 17:18:11', 'ftime': '2019-09-26 17:18:11', 'context': '滨州市 【滨州大宗中心】已收件,揽投员:赵辉,电话:18554358038', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 08:12:10', 'ftime': '2019-10-08 08:12:10', 'context': '[咸阳玉泉揽投部]咸阳市 收件人已取走邮件', 'location': '咸阳玉泉揽投部'}, {'time': '2019-10-07 14:49:12', 'ftime': '2019-10-07 14:49:12', 'context': '[咸阳玉泉揽投部]邮件投递到秦跃小区速递易A07包裹柜,投递员:杜欢鹏,电话:13239102617', 'location': '咸阳玉泉揽投部'}, {'time': '2019-10-07 14:20:53', 'ftime': '2019-10-07 14:20:53', 'context': '【咸阳玉泉揽投部】安排投递,投递员:杜欢鹏,电话:13239102617', 'location': '咸阳玉泉揽投部'}, {'time': '2019-10-03 10:13:08', 'ftime': '2019-10-03 10:13:08', 'context': '咸阳市 【咸阳玉泉揽投部】投递结果反馈-未妥投,备注(未联系上收件人,安排再投),投递员:杜欢鹏,电话:13239102617', 'location': '咸阳玉泉揽投部'}, {'time': '2019-10-03 07:47:16', 'ftime': '2019-10-03 07:47:16', 'context': '【咸阳玉泉揽投部】安排投递,投递员:杜欢鹏,电话:13239102617', 'location': '咸阳玉泉揽投部'}, {'time': '2019-10-03 07:22:20', 'ftime': '2019-10-03 07:22:20', 'context': '到达【咸阳玉泉揽投部】', 'location': '咸阳玉泉揽投部'}, {'time': '2019-10-03 06:06:46', 'ftime': '2019-10-03 06:06:46', 'context': '离开【咸阳中心】,下一站【咸阳玉泉揽投部】', 'location': '咸阳中心'}, {'time': '2019-10-02 18:01:07', 'ftime': '2019-10-02 18:01:07', 'context': '到达【咸阳中心】', 'location': '咸阳中心'}, {'time': '2019-10-02 17:27:19', 'ftime': '2019-10-02 17:27:19', 'context': '离开【西安航站】,下一站【咸阳中心】（经转）', 'location': '西安航站'}, {'time': '2019-10-02 14:00:14', 'ftime': '2019-10-02 14:00:14', 'context': '到达【西安航站】（经转）', 'location': '西安航站'}, {'time': '2019-10-02 09:10:40', 'ftime': '2019-10-02 09:10:40', 'context': '离开【湖北省航空邮件】,下一站【西安航站】', 'location': '湖北省航空邮件'}, {'time': '2019-10-01 17:38:36', 'ftime': '2019-10-01 17:38:36', 'context': '到达【武汉中心】', 'location': '武汉中心'}, {'time': '2019-10-01 16:06:02', 'ftime': '2019-10-01 16:06:02', 'context': '离开【邮政武汉市武昌区徐东路】,下一站【邮件处理中心】', 'location': '邮政武汉市武昌区徐东路'}, {'time': '2019-10-01 15:04:52', 'ftime': '2019-10-01 15:04:52', 'context': '武汉市 【徐东路邮政支局】已收件', 'location': '徐东路邮政支局'}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.085732</v>
+        <v>0.081843</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -824,11 +824,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 11:03:16', 'ftime': '2019-10-08 11:03:16', 'context': '[四川成都高新区软件园公司]快件已被 烟草速递易代收 代签收如有问题请联系陈勇【13679069291】。', 'location': '四川成都高新区软件园公司'}, {'time': '2019-10-08 08:24:40', 'ftime': '2019-10-08 08:24:40', 'context': '[四川成都高新区软件园公司]进行派件扫描；派送业务员：陈勇；联系电话：13679069291', 'location': '四川成都高新区软件园公司'}, {'time': '2019-09-30 22:30:00', 'ftime': '2019-09-30 22:30:00', 'context': '[四川成都分拨中心]从站点发出，本次转运目的地：四川成都高新区软件园公司', 'location': '四川成都分拨中心'}, {'time': '2019-09-30 22:15:51', 'ftime': '2019-09-30 22:15:51', 'context': '[四川成都分拨中心]在分拨中心进行称重扫描', 'location': '四川成都分拨中心'}, {'time': '2019-09-30 18:33:30', 'ftime': '2019-09-30 18:33:30', 'context': '[四川成都市高新区天府长城公司]进行揽件扫描', 'location': '四川成都市高新区天府长城公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 16:54:50', 'context': '查无结果', 'ftime': '2019-09-10 16:54:50'}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.07294100000000001</v>
+        <v>0.08175</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -928,11 +928,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 02:14:00', 'ftime': '2019-10-07 02:14:00', 'context': '[哈尔滨市]快件已发车', 'location': '哈尔滨市'}, {'time': '2019-10-06 18:38:00', 'ftime': '2019-10-06 18:38:00', 'context': '[哈尔滨市]快件在【哈尔滨龙运临时集散中心】已装车,准备发往 【东莞沙田集散中心】', 'location': '哈尔滨市'}, {'time': '2019-10-06 17:06:00', 'ftime': '2019-10-06 17:06:00', 'context': '[哈尔滨市]快件到达 【哈尔滨龙运临时集散中心】', 'location': '哈尔滨市'}, {'time': '2019-10-06 16:44:00', 'ftime': '2019-10-06 16:44:00', 'context': '快件在【哈尔滨市平房区联盟大街营业点】已装车,准备发往 【哈尔滨龙运临时集散中心】', 'location': '哈尔滨市'}, {'time': '2019-10-06 16:44:00', 'ftime': '2019-10-06 16:44:00', 'context': '[哈尔滨市]快件已发车', 'location': '哈尔滨市'}, {'time': '2019-10-06 16:03:00', 'ftime': '2019-10-06 16:03:00', 'context': '[哈尔滨市]顺丰速运 已收取快件', 'location': '哈尔滨市'}, {'time': '2019-10-06 15:13:00', 'ftime': '2019-10-06 15:13:00', 'context': '[哈尔滨市]顺丰速运 已收取快件', 'location': '哈尔滨市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-07 18:44:28', 'ftime': '2019-10-07 18:44:28', 'context': '客户签收：已签收，签收人凭取货码签收', 'location': None}, {'time': '2019-10-07 18:44:28', 'ftime': '2019-10-07 18:44:28', 'context': '已签收，签收人凭取货码签收。', 'location': None}, {'time': '2019-10-07 13:57:33', 'ftime': '2019-10-07 13:57:33', 'context': '已签收,签收人是（门卫代收 18115528583）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员薛黎明(18115528583)，感谢使用申通快递，期待再次为您服务', 'location': None}, {'time': '2019-10-07 13:41:05', 'ftime': '2019-10-07 13:41:05', 'context': '快件已存放至琴湖城市广场速递易【自提柜】，请及时取件。有问题请联系派件员18115528583', 'location': None}, {'time': '2019-10-07 13:41:05', 'ftime': '2019-10-07 13:41:05', 'context': '快件已被【琴湖城市广场速递易O27自提柜】代收，请及时取件。如有疑问，请联系派件员18115528583', 'location': None}, {'time': '2019-10-07 11:42:22', 'ftime': '2019-10-07 11:42:22', 'context': '江苏常熟金山苑分部-薛黎明(18115528583)-派件中', 'location': None}, {'time': '2019-10-07 10:12:28', 'ftime': '2019-10-07 10:12:28', 'context': '已到达-江苏常熟金山苑分部', 'location': None}, {'time': '2019-10-07 07:28:46', 'ftime': '2019-10-07 07:28:46', 'context': '江苏常熟公司-已发往-江苏常熟金山苑分部', 'location': None}, {'time': '2019-10-07 05:10:27', 'ftime': '2019-10-07 05:10:27', 'context': '江苏苏州转运中心-已发往-江苏常熟公司', 'location': None}, {'time': '2019-10-07 04:52:23', 'ftime': '2019-10-07 04:52:23', 'context': '已到达-江苏苏州转运中心', 'location': None}, {'time': '2019-10-06 21:00:20', 'ftime': '2019-10-06 21:00:20', 'context': '浙江温州转运中心-已装袋发往-江苏苏州转运中心', 'location': None}, {'time': '2019-10-06 21:00:20', 'ftime': '2019-10-06 21:00:20', 'context': '浙江温州转运中心-已进行装车扫描', 'location': None}, {'time': '2019-10-06 20:50:05', 'ftime': '2019-10-06 20:50:05', 'context': '已到达-浙江温州转运中心', 'location': None}, {'time': '2019-10-06 19:41:11', 'ftime': '2019-10-06 19:41:11', 'context': '浙江瑞安塘下公司-已装袋发往-浙江温州转运中心', 'location': None}, {'time': '2019-10-06 19:41:11', 'ftime': '2019-10-06 19:41:11', 'context': '浙江瑞安塘下公司-已进行装车扫描', 'location': None}, {'time': '2019-10-06 18:59:51', 'ftime': '2019-10-06 18:59:51', 'context': '浙江瑞安塘下公司-已发往-浙江温州转运中心', 'location': None}, {'time': '2019-10-06 18:59:51', 'ftime': '2019-10-06 18:59:51', 'context': '浙江瑞安塘下公司-已进行装袋扫描', 'location': None}, {'time': '2019-10-06 18:48:42', 'ftime': '2019-10-06 18:48:42', 'context': '浙江瑞安塘下公司-浙江瑞安场桥镇服务点-已收件', 'location': None}, {'time': '2019-10-06 17:57:32', 'ftime': '2019-10-06 17:57:32', 'context': '浙江瑞安场桥镇服务点-浙江瑞安场桥镇服务点(15727821157,0577-65227336)-已收件', 'location': None}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.071197</v>
+        <v>0.089282</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-07 18:49:20', 'ftime': '2019-10-07 18:49:20', 'context': '客户签收人: 已签收，签收人凭取货码签收。 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：17601320167，投诉电话：02168380013', 'location': None}, {'time': '2019-10-07 16:14:07', 'ftime': '2019-10-07 16:14:07', 'context': '快件已由新川小区8号楼旁丰巢智能柜丰巢柜代收，取件码已发送，请及时取件。', 'location': None}, {'time': '2019-10-07 15:01:20', 'ftime': '2019-10-07 15:01:20', 'context': '【上海市浦东机场公司】 派件中 派件人: 赵明 电话 18019418908 如有疑问，请联系：02168380013', 'location': None}, {'time': '2019-10-07 14:59:00', 'ftime': '2019-10-07 14:59:00', 'context': '【上海市浦东机场公司】 已收入', 'location': None}, {'time': '2019-10-07 11:47:07', 'ftime': '2019-10-07 11:47:07', 'context': '【浦东转运中心】 已发出 下一站 【上海市浦东机场】', 'location': None}, {'time': '2019-10-07 11:32:37', 'ftime': '2019-10-07 11:32:37', 'context': '【浦东转运中心公司】 已收入', 'location': None}, {'time': '2019-10-07 09:18:24', 'ftime': '2019-10-07 09:18:24', 'context': '【上海转运中心】 已发出 下一站 【浦东转运中心】', 'location': None}, {'time': '2019-10-07 09:17:10', 'ftime': '2019-10-07 09:17:10', 'context': '【上海转运中心公司】 已收入', 'location': None}, {'time': '2019-10-05 21:37:56', 'ftime': '2019-10-05 21:37:56', 'context': '【佛山转运中心】 已发出 下一站 【上海转运中心】', 'location': None}, {'time': '2019-10-05 21:05:25', 'ftime': '2019-10-05 21:05:25', 'context': '【佛山转运中心公司】 已收入', 'location': None}, {'time': '2019-10-05 19:03:26', 'ftime': '2019-10-05 19:03:26', 'context': '【广东省佛山市顺德区龙江公司】 已收件 取件人: 梁耀鸿 (13719800874)', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 13:58:58', 'ftime': '2019-10-08 13:58:58', 'context': '【怀化市】 快件离开 【怀化新晃县】 已发往 【衡阳中转】', 'location': ''}, {'time': '2019-10-08 13:28:13', 'ftime': '2019-10-08 13:28:13', 'context': '【怀化市】 【怀化新晃县】（0745-2691711） 的 新晃中通收寄（18374553330） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.07702199999999999</v>
+        <v>0.075406</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 15:47:12', 'ftime': '2019-10-08 15:47:12', 'context': '[广东广州白云区人和公司]快件已被 已签收 签收', 'location': '广东广州白云区人和公司'}, {'time': '2019-10-08 14:09:08', 'ftime': '2019-10-08 14:09:08', 'context': '[广东广州白云区人和公司]进行派件扫描；派送业务员：曹嘉文；联系电话：18565477101', 'location': '广东广州白云区人和公司'}, {'time': '2019-10-08 13:00:32', 'ftime': '2019-10-08 13:00:32', 'context': '[广东广州白云区人和公司]进行揽件扫描', 'location': '广东广州白云区人和公司'}, {'time': '2019-10-08 05:13:19', 'ftime': '2019-10-08 05:13:19', 'context': '[广东广州分拨中心]从站点发出，本次转运目的地：广东广州白云区人和公司', 'location': '广东广州分拨中心'}, {'time': '2019-10-08 05:05:27', 'ftime': '2019-10-08 05:05:27', 'context': '[广东广州分拨中心]在分拨中心进行卸车扫描', 'location': '广东广州分拨中心'}, {'time': '2019-10-08 01:38:43', 'ftime': '2019-10-08 01:38:43', 'context': '[广东中山公司]进行装车扫描，发往：广东广州分拨中心', 'location': '广东中山公司'}, {'time': '2019-10-08 01:36:50', 'ftime': '2019-10-08 01:36:50', 'context': '[广东中山公司]进行下级地点扫描，发往：广东广州网点包', 'location': '广东中山公司'}, {'time': '2019-10-08 01:27:48', 'ftime': '2019-10-08 01:27:48', 'context': '[广东中山公司]进行揽件扫描', 'location': '广东中山公司'}, {'time': '2019-10-07 18:28:40', 'ftime': '2019-10-07 18:28:40', 'context': '[广东中山公司大涌分部]进行揽件扫描', 'location': '广东中山公司大涌分部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-17 16:54:50', 'context': '查无结果', 'ftime': '2019-09-17 16:54:50'}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.07643800000000001</v>
+        <v>0.065564</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1267,11 +1267,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 11:22:32', 'ftime': '2019-10-08 11:22:32', 'context': '您的订单已被收件员揽收,【黑河爱辉区兴华街营业点】库存中', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'J1000', 'com': 'zhongtong', 'status': '200', 'state': '2', 'data': [{'time': '2019-10-07 10:37:58', 'ftime': '2019-10-07 10:37:58', 'context': '快件未签收，原因是【另约派送时间，续送】', 'location': None}, {'time': '2019-10-06 11:52:59', 'ftime': '2019-10-06 11:52:59', 'context': '快件未签收，原因是【节假日客户放假，续送】', 'location': None}, {'time': '2019-10-06 10:29:44', 'ftime': '2019-10-06 10:29:44', 'context': '快件被快递员取出，请等待快递员与您联系，电话13554761052。', 'location': None}, {'time': '2019-10-06 10:29:44', 'ftime': '2019-10-06 10:29:44', 'context': '快件已被文竹园北门1号丰巢智能柜代收，请及时取件。有问题请联系派件员13554761052。', 'location': None}, {'time': '2019-10-05 12:38:59', 'ftime': '2019-10-05 12:38:59', 'context': '快件未签收，原因是【客户已约时间取件】', 'location': None}, {'time': '2019-10-04 10:21:01', 'ftime': '2019-10-04 10:21:01', 'context': '快件未签收，原因是【节假日客户放假，续送】', 'location': None}, {'time': '2019-10-03 10:28:18', 'ftime': '2019-10-03 10:28:18', 'context': '快件已被文竹园北门1号丰巢智能柜代收，请及时取件。有问题请联系派件员13554761052。', 'location': None}, {'time': '2019-10-03 09:37:05', 'ftime': '2019-10-03 09:37:05', 'context': '快件未签收，原因是【节假日客户放假，续送】', 'location': None}, {'time': '2019-10-03 09:11:48', 'ftime': '2019-10-03 09:11:48', 'context': '[南山六部]的【袁红兵】正在派件, 电话：13925252696', 'location': None}, {'time': '2019-10-03 07:33:53', 'ftime': '2019-10-03 07:33:53', 'context': '快件已到达[南山六部],上一站是[虎门分拨中心]', 'location': None}, {'time': '2019-10-02 23:55:59', 'ftime': '2019-10-02 23:55:59', 'context': '快件已由[虎门分拨中心]发往[南山六部]', 'location': None}, {'time': '2019-10-02 23:15:00', 'ftime': '2019-10-02 23:15:00', 'context': '快件已到达[虎门分拨中心],上一站是[杭州分拨中心]', 'location': None}, {'time': '2019-09-30 22:36:29', 'ftime': '2019-09-30 22:36:29', 'context': '快件已由[杭州分拨中心]发往[虎门分拨中心]', 'location': None}, {'time': '2019-09-30 22:33:47', 'ftime': '2019-09-30 22:33:47', 'context': '快件已到达[杭州分拨中心],上一站是[勾庄一部]', 'location': None}, {'time': '2019-09-30 19:27:24', 'ftime': '2019-09-30 19:27:24', 'context': '快件已由[勾庄一部]发往[杭州分拨中心]', 'location': None}, {'time': '2019-09-30 18:57:18', 'ftime': '2019-09-30 18:57:18', 'context': '快件已由[勾庄一部]发往[杭州分拨中心]', 'location': None}, {'time': '2019-09-30 18:52:17', 'ftime': '2019-09-30 18:52:17', 'context': '[勾庄一部]【勾庄一部管理员】已收件', 'location': None}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.073196</v>
+        <v>0.092344</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1371,11 +1371,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 15:17:00', 'ftime': '2019-10-08 15:17:00', 'context': '快件到达 【长春市宽城区汉口大街速运营业点】', 'location': '长春市'}, {'time': '2019-10-08 15:17:00', 'ftime': '2019-10-08 15:17:00', 'context': '[长春市]快件交给刘玉龙，正在派送途中（联系电话：15584358121）', 'location': '长春市'}, {'time': '2019-10-08 14:27:00', 'ftime': '2019-10-08 14:27:00', 'context': '[长春市]快件已发车', 'location': '长春市'}, {'time': '2019-10-08 14:26:00', 'ftime': '2019-10-08 14:26:00', 'context': '快件在【长春长青集散中心】已装车,准备发往 【长春市宽城区汉口大街速运营业点】', 'location': '长春市'}, {'time': '2019-10-08 11:18:00', 'ftime': '2019-10-08 11:18:00', 'context': '[长春市]快件到达 【长春长青集散中心】', 'location': '长春市'}, {'time': '2019-10-08 09:56:00', 'ftime': '2019-10-08 09:56:00', 'context': '[长春市]快件到达【长春】，准备发往【长春长青集散中心】', 'location': '长春市'}, {'time': '2019-10-08 07:15:00', 'ftime': '2019-10-08 07:15:00', 'context': '[郑州市]快件在【郑州飞往长春航班上】已起飞', 'location': '郑州市'}, {'time': '2019-10-07 23:13:00', 'ftime': '2019-10-07 23:13:00', 'context': '[郑州市]快件在【郑州航空集散中心】已装车,准备发往 【长春长青集散中心】', 'location': '郑州市'}, {'time': '2019-10-07 20:56:00', 'ftime': '2019-10-07 20:56:00', 'context': '[郑州市]快件到达 【郑州航空集散中心】', 'location': '郑州市'}, {'time': '2019-10-07 15:53:00', 'ftime': '2019-10-07 15:53:00', 'context': '[郑州市]快件已发车', 'location': '郑州市'}, {'time': '2019-10-07 15:52:00', 'ftime': '2019-10-07 15:52:00', 'context': '[郑州市]快件在【郑州港区中转场】已装车,准备发往 【郑州航空集散中心】', 'location': '郑州市'}, {'time': '2019-10-07 12:17:00', 'ftime': '2019-10-07 12:17:00', 'context': '[郑州市]快件到达 【郑州港区中转场】', 'location': '郑州市'}, {'time': '2019-10-07 10:59:00', 'ftime': '2019-10-07 10:59:00', 'context': '[郑州市]快件已发车', 'location': '郑州市'}, {'time': '2019-10-07 10:44:00', 'ftime': '2019-10-07 10:44:00', 'context': '[郑州市]快件在【郑州中原区龙鼎工业园营业点】已装车,准备发往 【郑州港区中转场】', 'location': '郑州市'}, {'time': '2019-10-07 10:35:00', 'ftime': '2019-10-07 10:35:00', 'context': '[郑州市]顺丰速运 已收取快件', 'location': '郑州市'}, {'time': '2019-10-07 08:33:00', 'ftime': '2019-10-07 08:33:00', 'context': '[郑州市]顺丰速运 已收取快件', 'location': '郑州市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-08 14:13:23', 'ftime': '2019-10-08 14:13:23', 'context': '【山东省菏泽市公司】 派件中 派件人: 陈保义 电话 18521139945 如有疑问，请联系：0530-5960001', 'location': ''}, {'time': '2019-10-08 07:41:23', 'ftime': '2019-10-08 07:41:23', 'context': '【山东省菏泽市公司】 已收入', 'location': ''}, {'time': '2019-10-07 23:26:53', 'ftime': '2019-10-07 23:26:53', 'context': '【菏泽转运中心】 已发出 下一站 【山东省菏泽市】', 'location': ''}, {'time': '2019-10-07 19:49:15', 'ftime': '2019-10-07 19:49:15', 'context': '【菏泽转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-07 09:34:37', 'ftime': '2019-10-07 09:34:37', 'context': '【济南转运中心】 已发出 下一站 【菏泽转运中心】', 'location': ''}, {'time': '2019-10-07 00:35:05', 'ftime': '2019-10-07 00:35:05', 'context': '【济南转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-06 19:09:18', 'ftime': '2019-10-06 19:09:18', 'context': '【山东省滨州市博兴县】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-10-06 18:42:56', 'ftime': '2019-10-06 18:42:56', 'context': '【山东省滨州市博兴县公司】 已打包', 'location': ''}, {'time': '2019-10-06 10:15:47', 'ftime': '2019-10-06 10:15:47', 'context': '【山东省滨州市博兴县公司】 已收件 取件人: 王增军 (15065263335)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.076485</v>
+        <v>0.078529</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1484,11 +1484,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-08-24 13:05:06', 'ftime': '2019-08-24 13:05:06', 'context': '巴州【巴州办】进行签收', 'location': ''}, {'time': '2019-08-24 12:17:27', 'ftime': '2019-08-24 12:17:27', 'context': '已由巴州(巴州办)装在车牌号【新M15D22】正在派送,车序号【D996001190824001】.', 'location': ''}, {'time': '2019-08-24 12:14:25', 'ftime': '2019-08-24 12:14:25', 'context': '巴州(巴州办)将【747544392】装在【新M15D22】上,车序号【D996001190824001】,装车【9】件,类型【送货】,操作来源【四代系统】', 'location': ''}, {'time': '2019-08-23 16:50:31', 'ftime': '2019-08-23 16:50:31', 'context': '货物已到达巴州(巴州办),上一站乌鲁木齐(沙区办)', 'location': ''}, {'time': '2019-08-23 16:32:11', 'ftime': '2019-08-23 16:32:11', 'context': '货物已到达巴州(巴州办),上一站乌鲁木齐(沙区办)', 'location': ''}, {'time': '2019-08-21 19:51:11', 'ftime': '2019-08-21 19:51:11', 'context': '货物已到达巴州(巴州办),上一站乌鲁木齐(沙区办)', 'location': ''}, {'time': '2019-08-20 18:27:09', 'ftime': '2019-08-20 18:27:09', 'context': '已由乌鲁木齐(沙区办)装车正在发往巴州(巴州办),车牌号【皖F82242】,车序号【M991001190816001】', 'location': ''}, {'time': '2019-08-18 09:59:34', 'ftime': '2019-08-18 09:59:34', 'context': '乌鲁木齐(沙区办)将【747544392】装在发往巴州(巴州办)的【皖F82242】上,车序号【M991001190816001】,装车【9】件,类型【发货】,操作来源【四代系统】', 'location': ''}, {'time': '2019-08-18 09:55:13', 'ftime': '2019-08-18 09:55:13', 'context': '货物已到达乌鲁木齐(沙区办),上一站西安(六村堡办)', 'location': ''}, {'time': '2019-08-14 15:24:39', 'ftime': '2019-08-14 15:24:39', 'context': '货物已到达西安(六村堡办),上一站上海(青浦区徐泾镇办)', 'location': ''}, {'time': '2019-08-14 15:09:55', 'ftime': '2019-08-14 15:09:55', 'context': '已由西安(六村堡办)装车正在发往乌鲁木齐(沙区办),车牌号【陕AW7629】,车序号【L029001190814004】', 'location': ''}, {'time': '2019-08-14 12:11:47', 'ftime': '2019-08-14 12:11:47', 'context': '西安(六村堡办)将【747544392】装在发往乌鲁木齐(沙区办)的【陕AW7629】上,车序号【L029001190814004】,类型【发货】,操作来源【APP】', 'location': ''}, {'time': '2019-08-13 04:15:10', 'ftime': '2019-08-13 04:15:10', 'context': '已由上海(青浦区徐泾镇办)装车正在发往西安(六村堡办),车牌号【黑D44188】,车序号【L021001190810032】', 'location': ''}, {'time': '2019-08-11 00:41:41', 'ftime': '2019-08-11 00:41:41', 'context': '货物已到达上海(青浦区徐泾镇办),上一站合肥(合肥龙塘办)', 'location': ''}, {'time': '2019-08-10 18:18:55', 'ftime': '2019-08-10 18:18:55', 'context': '上海(青浦区徐泾镇办)将【747544392】装在发往西安(六村堡办)的【黑D44188】上,车序号【L021001190810032】,类型【发货】,操作来源【APP】', 'location': ''}, {'time': '2019-08-10 00:10:39', 'ftime': '2019-08-10 00:10:39', 'context': '合肥(合肥龙塘办)将【747544392】装在发往上海(青浦区徐泾镇办)的【沪DC8419】上,车序号【L551001190809001】,类型【发货】,操作来源【APP】', 'location': ''}, {'time': '2019-08-09 17:23:36', 'ftime': '2019-08-09 17:23:36', 'context': '货物已到达合肥(合肥龙塘办),上一站合肥(合肥合清溪路办)', 'location': ''}, {'time': '2019-08-09 17:03:14', 'ftime': '2019-08-09 17:03:14', 'context': '已由合肥(合肥合清溪路办)装车正在发往合肥(合肥龙塘办),车牌号【皖YN0001】,车序号【D551005190809004】', 'location': ''}, {'time': '2019-08-09 17:02:57', 'ftime': '2019-08-09 17:02:57', 'context': '合肥(合肥合清溪路办)将【747544392】装在发往合肥(合肥龙塘办)的【皖YN0001】上,车序号【D551005190809004】,装车【9】件,类型【发货】,操作来源【四代系统】', 'location': ''}, {'time': '2019-08-09 17:02:28', 'ftime': '2019-08-09 17:02:28', 'context': '合肥(合肥合清溪路办)将【747544392】装在【皖YN0001】车上,车序号【D551005190809003】,装车【9】件,类型【提货】,操作来源【四代系统】', 'location': ''}, {'time': '2019-08-09 11:30:46', 'ftime': '2019-08-09 11:30:46', 'context': '合肥(合肥合清溪路办)办理托运【747544392】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 15:15:44', 'ftime': '2019-10-08 15:15:44', 'context': '【安庆市】 快件已由【丰巢的南园山庄(丰巢智能快递柜)】代签收, 如有问题请电联（18205566882 / 4000633333,18205566882）, 感谢您使用中通快递, 期待再次为您服务!', 'location': None}, {'time': '2019-10-08 13:57:00', 'ftime': '2019-10-08 13:57:00', 'context': '【安庆市】 【安庆大观区二部】 的孙玉图（18205566882） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-10-08 13:56:59', 'ftime': '2019-10-08 13:56:59', 'context': '【安庆市】 快件已经到达 【安庆大观区二部】', 'location': None}, {'time': '2019-10-08 11:26:54', 'ftime': '2019-10-08 11:26:54', 'context': '【安庆市】 快件离开 【安庆中转部】 已发往 【安庆大观区二部】', 'location': None}, {'time': '2019-10-08 11:19:25', 'ftime': '2019-10-08 11:19:25', 'context': '【安庆市】 快件已经到达 【安庆中转部】', 'location': None}, {'time': '2019-10-08 07:19:50', 'ftime': '2019-10-08 07:19:50', 'context': '【合肥市】 快件离开 【合肥中转部】 已发往 【安庆中转部】', 'location': None}, {'time': '2019-10-08 07:10:42', 'ftime': '2019-10-08 07:10:42', 'context': '【合肥市】 快件已经到达 【合肥中转部】', 'location': None}, {'time': '2019-10-07 09:22:36', 'ftime': '2019-10-07 09:22:36', 'context': '【广州市】 快件离开 【广州中心】 已发往 【合肥中转部】', 'location': None}, {'time': '2019-10-07 09:13:53', 'ftime': '2019-10-07 09:13:53', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': None}, {'time': '2019-10-07 06:24:51', 'ftime': '2019-10-07 06:24:51', 'context': '【东莞市】 快件离开 【虎门中心】 已发往 【广州中心】', 'location': None}, {'time': '2019-10-07 03:09:50', 'ftime': '2019-10-07 03:09:50', 'context': '【东莞市】 快件已经到达 【虎门中心】', 'location': None}, {'time': '2019-10-07 01:06:23', 'ftime': '2019-10-07 01:06:23', 'context': '【深圳市】 快件离开 【福田华强】 已发往 【安庆】', 'location': None}, {'time': '2019-10-06 21:49:01', 'ftime': '2019-10-06 21:49:01', 'context': '【深圳市】 【福田华强】（0755-33948918） 的 悟空配件-63（1812384843） 已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.073064</v>
+        <v>0.067856</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
